--- a/tests/test_data/dlc_data/true_data/ID 12 - Run 3 - Standard Devs. Stepcycle.xlsx
+++ b/tests/test_data/dlc_data/true_data/ID 12 - Run 3 - Standard Devs. Stepcycle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX26"/>
+  <dimension ref="A1:BJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,97 +684,157 @@
           <t>Hip Angle Acceleration</t>
         </is>
       </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle Angle Velocity Velocity</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle Angle Velocity Acceleration</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle Angle Acceleration Velocity</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle Angle Acceleration Acceleration</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Knee Angle Velocity Velocity</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Knee Angle Velocity Acceleration</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Knee Angle Acceleration Velocity</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Knee Angle Acceleration Acceleration</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Hip Angle Velocity Velocity</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Hip Angle Velocity Acceleration</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Hip Angle Acceleration Velocity</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Hip Angle Acceleration Acceleration</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>85.98823724909033</v>
+        <v>0.4053909727867691</v>
       </c>
       <c r="C2" t="n">
         <v>0.04789879981507994</v>
       </c>
       <c r="D2" t="n">
-        <v>87.08415487979322</v>
+        <v>0.6905266579161307</v>
       </c>
       <c r="E2" t="n">
         <v>0.5193507417719516</v>
       </c>
       <c r="F2" t="n">
-        <v>84.59111376011624</v>
+        <v>1.802514461760829</v>
       </c>
       <c r="G2" t="n">
         <v>0.2640176326670627</v>
       </c>
       <c r="H2" t="n">
-        <v>84.23593906646082</v>
+        <v>2.157689155416278</v>
       </c>
       <c r="I2" t="n">
         <v>0.216731619327625</v>
       </c>
       <c r="J2" t="n">
-        <v>87.83555335186898</v>
+        <v>1.441925129991887</v>
       </c>
       <c r="K2" t="n">
         <v>0.8922049339781495</v>
       </c>
       <c r="L2" t="n">
-        <v>87.84175629311422</v>
+        <v>1.448128071237122</v>
       </c>
       <c r="M2" t="n">
         <v>0.8026325956304134</v>
       </c>
       <c r="N2" t="n">
-        <v>87.82219379506215</v>
+        <v>1.428565573185047</v>
       </c>
       <c r="O2" t="n">
         <v>0.7229419464760625</v>
       </c>
       <c r="P2" t="n">
-        <v>85.95930058905419</v>
+        <v>0.4343276328228853</v>
       </c>
       <c r="Q2" t="n">
         <v>1.524300270892212</v>
       </c>
       <c r="R2" t="n">
-        <v>85.93434070019012</v>
+        <v>0.459287521686953</v>
       </c>
       <c r="S2" t="n">
         <v>1.067011407081118</v>
       </c>
       <c r="T2" t="n">
-        <v>87.379922258093</v>
+        <v>0.9862940362159236</v>
       </c>
       <c r="U2" t="n">
         <v>0.5430546212703646</v>
       </c>
       <c r="V2" t="n">
-        <v>87.50521071413729</v>
+        <v>1.111582492260219</v>
       </c>
       <c r="W2" t="n">
         <v>1.242114127950472</v>
       </c>
       <c r="X2" t="n">
-        <v>87.51636667454497</v>
+        <v>1.122738452667889</v>
       </c>
       <c r="Y2" t="n">
         <v>0.4320144653320312</v>
       </c>
       <c r="Z2" t="n">
-        <v>83.52983352985788</v>
+        <v>2.863794692019198</v>
       </c>
       <c r="AA2" t="n">
         <v>1.721207639004326</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.5618558843085</v>
+        <v>7.831772337568573</v>
       </c>
       <c r="AC2" t="n">
         <v>0.1194933627514096</v>
       </c>
       <c r="AD2" t="n">
-        <v>66.83494486707322</v>
+        <v>19.55868335480385</v>
       </c>
       <c r="AE2" t="n">
         <v>1.93233895809092</v>
@@ -835,6 +895,42 @@
       </c>
       <c r="AX2" t="n">
         <v>4.007148194367501</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>5.720452186192575</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.2342938195530668</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.2342938195530668</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.883306303483694</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2.776030381271281</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.4430684843281065</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.4430684843281065</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.130507462841948</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>4.007148194367501</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.6070359223533304</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.6070359223533304</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.02989613399901</v>
       </c>
     </row>
     <row r="3">
@@ -842,91 +938,91 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>86.33917544750459</v>
+        <v>0.05445277437250695</v>
       </c>
       <c r="C3" t="n">
         <v>0.3927393162504131</v>
       </c>
       <c r="D3" t="n">
-        <v>87.41444476107334</v>
+        <v>1.020816539196254</v>
       </c>
       <c r="E3" t="n">
         <v>0.599130671075045</v>
       </c>
       <c r="F3" t="n">
-        <v>84.4689024255631</v>
+        <v>1.924725796313979</v>
       </c>
       <c r="G3" t="n">
         <v>0.2872832277987882</v>
       </c>
       <c r="H3" t="n">
-        <v>84.16073778842359</v>
+        <v>2.232890433453491</v>
       </c>
       <c r="I3" t="n">
         <v>0.554656982421875</v>
       </c>
       <c r="J3" t="n">
-        <v>88.53942688475263</v>
+        <v>2.145798662875556</v>
       </c>
       <c r="K3" t="n">
         <v>0.8074496654753958</v>
       </c>
       <c r="L3" t="n">
-        <v>88.40196284841984</v>
+        <v>2.008334626542762</v>
       </c>
       <c r="M3" t="n">
         <v>0.7231976123566284</v>
       </c>
       <c r="N3" t="n">
-        <v>88.18186901985334</v>
+        <v>1.78824079797625</v>
       </c>
       <c r="O3" t="n">
         <v>0.7240133082613056</v>
       </c>
       <c r="P3" t="n">
-        <v>87.32249888967961</v>
+        <v>0.9288706678025278</v>
       </c>
       <c r="Q3" t="n">
         <v>1.113282873275431</v>
       </c>
       <c r="R3" t="n">
-        <v>86.76220102513091</v>
+        <v>0.3685728032538265</v>
       </c>
       <c r="S3" t="n">
         <v>0.6499919485538683</v>
       </c>
       <c r="T3" t="n">
-        <v>88.77720731369993</v>
+        <v>2.383579091822853</v>
       </c>
       <c r="U3" t="n">
         <v>0.459005477580618</v>
       </c>
       <c r="V3" t="n">
-        <v>87.96379414010555</v>
+        <v>1.570165918228469</v>
       </c>
       <c r="W3" t="n">
         <v>0.2699872280689064</v>
       </c>
       <c r="X3" t="n">
-        <v>89.06292408070667</v>
+        <v>2.669295858829585</v>
       </c>
       <c r="Y3" t="n">
         <v>0.3095221012196703</v>
       </c>
       <c r="Z3" t="n">
-        <v>84.60356123903965</v>
+        <v>1.79006698283743</v>
       </c>
       <c r="AA3" t="n">
         <v>1.556307204226236</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.96466210547915</v>
+        <v>6.42896611639793</v>
       </c>
       <c r="AC3" t="n">
         <v>1.272688520715587</v>
       </c>
       <c r="AD3" t="n">
-        <v>68.76422800916308</v>
+        <v>17.629400212714</v>
       </c>
       <c r="AE3" t="n">
         <v>2.941671330878073</v>
@@ -987,6 +1083,42 @@
       </c>
       <c r="AX3" t="n">
         <v>2.714409530287529</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.8376341625650552</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.496399619897667</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.496399619897667</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.5666700172782335</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.3243523178158956</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.483091540996433</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1.483091540996433</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.5271382305135717</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2.714409530287529</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1.9590270338127</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.9590270338127</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.7867086064398443</v>
       </c>
     </row>
     <row r="4">
@@ -994,91 +1126,91 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>86.77485597894547</v>
+        <v>0.3812277570684017</v>
       </c>
       <c r="C4" t="n">
         <v>0.2193735000935035</v>
       </c>
       <c r="D4" t="n">
-        <v>87.70036951024484</v>
+        <v>1.306741288367746</v>
       </c>
       <c r="E4" t="n">
         <v>0.4906106502451806</v>
       </c>
       <c r="F4" t="n">
-        <v>84.32522733160789</v>
+        <v>2.068400890269174</v>
       </c>
       <c r="G4" t="n">
         <v>0.2173159984832083</v>
       </c>
       <c r="H4" t="n">
-        <v>84.27882093064329</v>
+        <v>2.114807291233795</v>
       </c>
       <c r="I4" t="n">
         <v>0.4387591747527395</v>
       </c>
       <c r="J4" t="n">
-        <v>88.76467765645778</v>
+        <v>2.371049434580705</v>
       </c>
       <c r="K4" t="n">
         <v>0.3712593240940834</v>
       </c>
       <c r="L4" t="n">
-        <v>88.7867176786382</v>
+        <v>2.393089456761139</v>
       </c>
       <c r="M4" t="n">
         <v>0.3527661587329689</v>
       </c>
       <c r="N4" t="n">
-        <v>88.54383001936243</v>
+        <v>2.150201797485344</v>
       </c>
       <c r="O4" t="n">
         <v>0.5118025110122986</v>
       </c>
       <c r="P4" t="n">
-        <v>88.57505067865901</v>
+        <v>2.181422456781931</v>
       </c>
       <c r="Q4" t="n">
         <v>1.565026222391332</v>
       </c>
       <c r="R4" t="n">
-        <v>88.302259242281</v>
+        <v>1.908631020403917</v>
       </c>
       <c r="S4" t="n">
         <v>1.332502162202871</v>
       </c>
       <c r="T4" t="n">
-        <v>89.34526037662589</v>
+        <v>2.9516321547488</v>
       </c>
       <c r="U4" t="n">
         <v>1.026539092368274</v>
       </c>
       <c r="V4" t="n">
-        <v>88.41364840243725</v>
+        <v>2.020020180560167</v>
       </c>
       <c r="W4" t="n">
         <v>1.232329835282997</v>
       </c>
       <c r="X4" t="n">
-        <v>88.28502817356842</v>
+        <v>1.891399951691334</v>
       </c>
       <c r="Y4" t="n">
         <v>0.9093183152219098</v>
       </c>
       <c r="Z4" t="n">
-        <v>85.90444402491794</v>
+        <v>0.4891841969591439</v>
       </c>
       <c r="AA4" t="n">
         <v>1.876498283223903</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.94353777297</v>
+        <v>5.450090448907069</v>
       </c>
       <c r="AC4" t="n">
         <v>0.8742210712838698</v>
       </c>
       <c r="AD4" t="n">
-        <v>42.47240107110206</v>
+        <v>43.92122715077502</v>
       </c>
       <c r="AE4" t="n">
         <v>18.81243320221597</v>
@@ -1139,6 +1271,42 @@
       </c>
       <c r="AX4" t="n">
         <v>1.725163559551819</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1.778503791949531</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.123676124438749</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.123676124438749</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.357713246599371</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.316182094848785</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.3252665488053323</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.3252665488053323</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.973351606792034</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.725163559551819</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.998037700377044</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.998037700377044</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1.527215885204137</v>
       </c>
     </row>
     <row r="5">
@@ -1146,91 +1314,91 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>87.28824511487433</v>
+        <v>0.8946168929972629</v>
       </c>
       <c r="C5" t="n">
         <v>0.5860430129030902</v>
       </c>
       <c r="D5" t="n">
-        <v>88.15818543129778</v>
+        <v>1.764557209420708</v>
       </c>
       <c r="E5" t="n">
         <v>0.5128901055518611</v>
       </c>
       <c r="F5" t="n">
-        <v>84.12599867962774</v>
+        <v>2.267629542249317</v>
       </c>
       <c r="G5" t="n">
         <v>0.1464356767370347</v>
       </c>
       <c r="H5" t="n">
-        <v>84.30156606308955</v>
+        <v>2.092062158787506</v>
       </c>
       <c r="I5" t="n">
         <v>0.5844359702252291</v>
       </c>
       <c r="J5" t="n">
-        <v>89.01364042403851</v>
+        <v>2.62001220216144</v>
       </c>
       <c r="K5" t="n">
         <v>0.3920859478889724</v>
       </c>
       <c r="L5" t="n">
-        <v>89.02120285845817</v>
+        <v>2.627574636581102</v>
       </c>
       <c r="M5" t="n">
         <v>0.3283602126101215</v>
       </c>
       <c r="N5" t="n">
-        <v>89.07168773894615</v>
+        <v>2.678059517069066</v>
       </c>
       <c r="O5" t="n">
         <v>0.4007319186596163</v>
       </c>
       <c r="P5" t="n">
-        <v>88.8421728255901</v>
+        <v>2.44854460371301</v>
       </c>
       <c r="Q5" t="n">
         <v>1.845473431526344</v>
       </c>
       <c r="R5" t="n">
-        <v>88.41865417805126</v>
+        <v>2.025025956174169</v>
       </c>
       <c r="S5" t="n">
         <v>1.769114555196559</v>
       </c>
       <c r="T5" t="n">
-        <v>89.03070206337786</v>
+        <v>2.637073841500786</v>
       </c>
       <c r="U5" t="n">
         <v>1.477647334971323</v>
       </c>
       <c r="V5" t="n">
-        <v>87.29549164467669</v>
+        <v>0.9018634227996216</v>
       </c>
       <c r="W5" t="n">
         <v>1.705912326244601</v>
       </c>
       <c r="X5" t="n">
-        <v>87.35071750397378</v>
+        <v>0.9570892820967032</v>
       </c>
       <c r="Y5" t="n">
         <v>1.353937514284823</v>
       </c>
       <c r="Z5" t="n">
-        <v>86.67229794441386</v>
+        <v>0.2786697225367689</v>
       </c>
       <c r="AA5" t="n">
         <v>2.405913332675361</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.70928403164477</v>
+        <v>3.684344190232309</v>
       </c>
       <c r="AC5" t="n">
         <v>0.1598763973154931</v>
       </c>
       <c r="AD5" t="n">
-        <v>71.92183555440701</v>
+        <v>14.47179266747008</v>
       </c>
       <c r="AE5" t="n">
         <v>1.146740609026971</v>
@@ -1291,6 +1459,42 @@
       </c>
       <c r="AX5" t="n">
         <v>0.05587310857461869</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.036211239933369</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.7235177538821997</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.7235177538821997</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.6785909001403764</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1.585394555286461</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.210382441709109</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.210382441709109</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.15848789181742</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.05587310857461869</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1.387093581255761</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.387093581255761</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.08249895108798366</v>
       </c>
     </row>
     <row r="6">
@@ -1298,91 +1502,91 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>87.03593522944348</v>
+        <v>0.6423070075664086</v>
       </c>
       <c r="C6" t="n">
         <v>0.3455466412483403</v>
       </c>
       <c r="D6" t="n">
-        <v>88.49453976813783</v>
+        <v>2.100911546260754</v>
       </c>
       <c r="E6" t="n">
         <v>0.674154403361868</v>
       </c>
       <c r="F6" t="n">
-        <v>84.00751580583288</v>
+        <v>2.386112416044199</v>
       </c>
       <c r="G6" t="n">
         <v>0.2624552300635798</v>
       </c>
       <c r="H6" t="n">
-        <v>84.48501850696319</v>
+        <v>1.908609714913879</v>
       </c>
       <c r="I6" t="n">
         <v>1.089777845017451</v>
       </c>
       <c r="J6" t="n">
-        <v>88.85612284883541</v>
+        <v>2.462494626958332</v>
       </c>
       <c r="K6" t="n">
         <v>0.2627352450756248</v>
       </c>
       <c r="L6" t="n">
-        <v>88.99098000627882</v>
+        <v>2.597351784401752</v>
       </c>
       <c r="M6" t="n">
         <v>0.3889286771733751</v>
       </c>
       <c r="N6" t="n">
-        <v>89.25345299091744</v>
+        <v>2.859824769040372</v>
       </c>
       <c r="O6" t="n">
         <v>0.7883112481299861</v>
       </c>
       <c r="P6" t="n">
-        <v>90.12475926825341</v>
+        <v>3.731131046376333</v>
       </c>
       <c r="Q6" t="n">
         <v>2.459556498426075</v>
       </c>
       <c r="R6" t="n">
-        <v>89.24107247210563</v>
+        <v>2.847444250228556</v>
       </c>
       <c r="S6" t="n">
         <v>2.47932596409575</v>
       </c>
       <c r="T6" t="n">
-        <v>89.72457520505216</v>
+        <v>3.330946983175082</v>
       </c>
       <c r="U6" t="n">
         <v>1.794263149829618</v>
       </c>
       <c r="V6" t="n">
-        <v>88.16100181417262</v>
+        <v>1.767373592295542</v>
       </c>
       <c r="W6" t="n">
         <v>1.569500375301281</v>
       </c>
       <c r="X6" t="n">
-        <v>88.63810884191635</v>
+        <v>2.244480620039276</v>
       </c>
       <c r="Y6" t="n">
         <v>1.386066193276257</v>
       </c>
       <c r="Z6" t="n">
-        <v>87.38804675163107</v>
+        <v>0.9944185297539931</v>
       </c>
       <c r="AA6" t="n">
         <v>2.823241213534736</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.56706943917783</v>
+        <v>2.826558782699252</v>
       </c>
       <c r="AC6" t="n">
         <v>1.327342175422828</v>
       </c>
       <c r="AD6" t="n">
-        <v>45.14952314660904</v>
+        <v>41.24410507526804</v>
       </c>
       <c r="AE6" t="n">
         <v>20.29567677923973</v>
@@ -1443,6 +1647,42 @@
       </c>
       <c r="AX6" t="n">
         <v>1.283421538050647</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1.136562671254763</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.4237322496193514</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.4237322496193514</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.5316900079022766</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.1469803618479735</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.472351030808477</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1.472351030808477</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.2384120574832101</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.283421538050647</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.2034769897709006</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.2034769897709006</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.7366906996038294</v>
       </c>
     </row>
     <row r="7">
@@ -1450,91 +1690,91 @@
         <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>86.55816322945535</v>
+        <v>0.164535007578273</v>
       </c>
       <c r="C7" t="n">
         <v>0.7349825919942674</v>
       </c>
       <c r="D7" t="n">
-        <v>88.71282846369643</v>
+        <v>2.319200241819345</v>
       </c>
       <c r="E7" t="n">
         <v>0.2030961056972984</v>
       </c>
       <c r="F7" t="n">
-        <v>84.0821458938274</v>
+        <v>2.311482328049685</v>
       </c>
       <c r="G7" t="n">
         <v>0.1879387713493159</v>
       </c>
       <c r="H7" t="n">
-        <v>84.69115419590729</v>
+        <v>1.702474025969799</v>
       </c>
       <c r="I7" t="n">
         <v>0.7820251140188716</v>
       </c>
       <c r="J7" t="n">
-        <v>88.35569036767838</v>
+        <v>1.962062145801298</v>
       </c>
       <c r="K7" t="n">
         <v>0.3184825816053092</v>
       </c>
       <c r="L7" t="n">
-        <v>88.9652490615845</v>
+        <v>2.571620839707414</v>
       </c>
       <c r="M7" t="n">
         <v>0.3469588908743404</v>
       </c>
       <c r="N7" t="n">
-        <v>89.38763750360368</v>
+        <v>2.994009281726598</v>
       </c>
       <c r="O7" t="n">
         <v>0.1734003107598525</v>
       </c>
       <c r="P7" t="n">
-        <v>90.9665919364767</v>
+        <v>4.572963714599609</v>
       </c>
       <c r="Q7" t="n">
         <v>2.879757576800415</v>
       </c>
       <c r="R7" t="n">
-        <v>90.80116190808886</v>
+        <v>4.407533686211778</v>
       </c>
       <c r="S7" t="n">
         <v>2.702940271255819</v>
       </c>
       <c r="T7" t="n">
-        <v>91.04484395777928</v>
+        <v>4.651215735902184</v>
       </c>
       <c r="U7" t="n">
         <v>1.999708946715018</v>
       </c>
       <c r="V7" t="n">
-        <v>90.04770136894065</v>
+        <v>3.654073147063563</v>
       </c>
       <c r="W7" t="n">
         <v>1.614599024995854</v>
       </c>
       <c r="X7" t="n">
-        <v>90.31983334967431</v>
+        <v>3.926205127797218</v>
       </c>
       <c r="Y7" t="n">
         <v>1.02576397834941</v>
       </c>
       <c r="Z7" t="n">
-        <v>88.54851621262571</v>
+        <v>2.154887990748634</v>
       </c>
       <c r="AA7" t="n">
         <v>3.222867275806188</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.30281959696018</v>
+        <v>1.090808624916896</v>
       </c>
       <c r="AC7" t="n">
         <v>2.372595604429858</v>
       </c>
       <c r="AD7" t="n">
-        <v>75.00329524912733</v>
+        <v>11.39033297274975</v>
       </c>
       <c r="AE7" t="n">
         <v>1.515256597640668</v>
@@ -1595,6 +1835,42 @@
       </c>
       <c r="AX7" t="n">
         <v>0.3240466137394042</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.8898459290329495</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.479723286263168</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.479723286263168</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.3398064013853296</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.9257070490495671</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0999618635347197</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0999618635347197</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.4625672262573383</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.3240466137394042</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.7963623889686136</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.7963623889686136</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.2861710827816306</v>
       </c>
     </row>
     <row r="8">
@@ -1602,91 +1878,91 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>86.3981198123161</v>
+        <v>0.00449159043900238</v>
       </c>
       <c r="C8" t="n">
         <v>0.2279525107525799</v>
       </c>
       <c r="D8" t="n">
-        <v>88.92356791394823</v>
+        <v>2.529939692071146</v>
       </c>
       <c r="E8" t="n">
         <v>0.1294480993392568</v>
       </c>
       <c r="F8" t="n">
-        <v>84.63951678986247</v>
+        <v>1.754111432014625</v>
       </c>
       <c r="G8" t="n">
         <v>0.4608357206303992</v>
       </c>
       <c r="H8" t="n">
-        <v>86.04849855950539</v>
+        <v>0.3451296623716829</v>
       </c>
       <c r="I8" t="n">
         <v>1.510388800438413</v>
       </c>
       <c r="J8" t="n">
-        <v>89.56063047368474</v>
+        <v>3.167002251807673</v>
       </c>
       <c r="K8" t="n">
         <v>0.2518633578685936</v>
       </c>
       <c r="L8" t="n">
-        <v>89.78943926222782</v>
+        <v>3.395811040350736</v>
       </c>
       <c r="M8" t="n">
         <v>0.3085603105260972</v>
       </c>
       <c r="N8" t="n">
-        <v>90.20423990614871</v>
+        <v>3.810611684271635</v>
       </c>
       <c r="O8" t="n">
         <v>0.7256873110507414</v>
       </c>
       <c r="P8" t="n">
-        <v>90.99253999426011</v>
+        <v>4.598911772383026</v>
       </c>
       <c r="Q8" t="n">
         <v>2.593105397325886</v>
       </c>
       <c r="R8" t="n">
-        <v>91.08556382199551</v>
+        <v>4.691935600118427</v>
       </c>
       <c r="S8" t="n">
         <v>2.453166880506167</v>
       </c>
       <c r="T8" t="n">
-        <v>91.43342261618756</v>
+        <v>5.039794394310491</v>
       </c>
       <c r="U8" t="n">
         <v>1.330160587391958</v>
       </c>
       <c r="V8" t="n">
-        <v>89.760803669057</v>
+        <v>3.367175447179918</v>
       </c>
       <c r="W8" t="n">
         <v>0.9719158740753926</v>
       </c>
       <c r="X8" t="n">
-        <v>89.92264625873972</v>
+        <v>3.529018036862631</v>
       </c>
       <c r="Y8" t="n">
         <v>0.3642548906042151</v>
       </c>
       <c r="Z8" t="n">
-        <v>89.18463524351728</v>
+        <v>2.791007021640205</v>
       </c>
       <c r="AA8" t="n">
         <v>3.114221451130334</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.71008373828644</v>
+        <v>0.3164555164093699</v>
       </c>
       <c r="AC8" t="n">
         <v>2.754680146562301</v>
       </c>
       <c r="AD8" t="n">
-        <v>78.0513641682077</v>
+        <v>8.342264053669375</v>
       </c>
       <c r="AE8" t="n">
         <v>2.398324520029927</v>
@@ -1747,6 +2023,42 @@
       </c>
       <c r="AX8" t="n">
         <v>0.7868304344029333</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1.557028923779344</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.43262912843024</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1.43262912843024</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.8352796156517555</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1458351687781922</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.9263761344330703</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.9263761344330703</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.3324932816271036</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.7868304344029333</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.02009107188111603</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.02009107188111603</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.03657930122615194</v>
       </c>
     </row>
     <row r="9">
@@ -1754,91 +2066,91 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>86.13504824486185</v>
+        <v>0.2585799770152235</v>
       </c>
       <c r="C9" t="n">
         <v>0.05445277437250695</v>
       </c>
       <c r="D9" t="n">
-        <v>89.92882548494543</v>
+        <v>3.535197263068355</v>
       </c>
       <c r="E9" t="n">
         <v>0.008096086218003506</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37145078943132</v>
+        <v>0.9778225675542345</v>
       </c>
       <c r="G9" t="n">
         <v>0.9905551342254029</v>
       </c>
       <c r="H9" t="n">
-        <v>90.623203237006</v>
+        <v>4.229575015128923</v>
       </c>
       <c r="I9" t="n">
         <v>1.367187499999993</v>
       </c>
       <c r="J9" t="n">
-        <v>91.89042334860943</v>
+        <v>5.496795126732366</v>
       </c>
       <c r="K9" t="n">
         <v>0.1030617571891668</v>
       </c>
       <c r="L9" t="n">
-        <v>91.67225462325075</v>
+        <v>5.278626401373678</v>
       </c>
       <c r="M9" t="n">
         <v>0.496986064505073</v>
       </c>
       <c r="N9" t="n">
-        <v>91.89864219503201</v>
+        <v>5.505013973154924</v>
       </c>
       <c r="O9" t="n">
         <v>0.3891092665651996</v>
       </c>
       <c r="P9" t="n">
-        <v>90.7493936254623</v>
+        <v>4.355765403585231</v>
       </c>
       <c r="Q9" t="n">
         <v>2.550060191053028</v>
       </c>
       <c r="R9" t="n">
-        <v>90.75754246813186</v>
+        <v>4.363914246254787</v>
       </c>
       <c r="S9" t="n">
         <v>2.450488476043049</v>
       </c>
       <c r="T9" t="n">
-        <v>90.96790171684103</v>
+        <v>4.574273494963954</v>
       </c>
       <c r="U9" t="n">
         <v>1.218373724754812</v>
       </c>
       <c r="V9" t="n">
-        <v>89.07857549951432</v>
+        <v>2.684947277637235</v>
       </c>
       <c r="W9" t="n">
         <v>0.9987607915350694</v>
       </c>
       <c r="X9" t="n">
-        <v>89.58692246295038</v>
+        <v>3.193294241073289</v>
       </c>
       <c r="Y9" t="n">
         <v>0.4190242036859999</v>
       </c>
       <c r="Z9" t="n">
-        <v>89.573202741907</v>
+        <v>3.179574520029924</v>
       </c>
       <c r="AA9" t="n">
         <v>3.289993773115448</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.87593289639088</v>
+        <v>2.482304674513799</v>
       </c>
       <c r="AC9" t="n">
         <v>2.952315959524601</v>
       </c>
       <c r="AD9" t="n">
-        <v>80.34307601604056</v>
+        <v>6.050552205836524</v>
       </c>
       <c r="AE9" t="n">
         <v>2.721407058391161</v>
@@ -1899,6 +2211,42 @@
       </c>
       <c r="AX9" t="n">
         <v>1.103297050161855</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1.116906544081284</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.1700084093799421</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.1700084093799421</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.7792590681981458</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.1125957399024626</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.8003526628735034</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.8003526628735034</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.2093347607561742</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.103297050161855</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.8565504985482923</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.8565504985482923</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.809575373441018</v>
       </c>
     </row>
     <row r="10">
@@ -1906,91 +2254,91 @@
         <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>78.8786215033937</v>
+        <v>7.51500671848337</v>
       </c>
       <c r="C10" t="n">
         <v>4.656523846565413</v>
       </c>
       <c r="D10" t="n">
-        <v>90.34530621893862</v>
+        <v>3.951677997061552</v>
       </c>
       <c r="E10" t="n">
         <v>0.1889776676259132</v>
       </c>
       <c r="F10" t="n">
-        <v>94.47989971079723</v>
+        <v>8.086271488920168</v>
       </c>
       <c r="G10" t="n">
         <v>2.205576795212771</v>
       </c>
       <c r="H10" t="n">
-        <v>97.20366001129148</v>
+        <v>10.81003178941442</v>
       </c>
       <c r="I10" t="n">
         <v>1.773769297498333</v>
       </c>
       <c r="J10" t="n">
-        <v>92.94486502383617</v>
+        <v>6.551236801959099</v>
       </c>
       <c r="K10" t="n">
         <v>0.9833761986265799</v>
       </c>
       <c r="L10" t="n">
-        <v>93.05251177321092</v>
+        <v>6.65888355133383</v>
       </c>
       <c r="M10" t="n">
         <v>0.8504867553710938</v>
       </c>
       <c r="N10" t="n">
-        <v>92.49845261269429</v>
+        <v>6.1048243908172</v>
       </c>
       <c r="O10" t="n">
         <v>0.5987248522169963</v>
       </c>
       <c r="P10" t="n">
-        <v>90.59778781647378</v>
+        <v>4.20415959459671</v>
       </c>
       <c r="Q10" t="n">
         <v>1.786365914852063</v>
       </c>
       <c r="R10" t="n">
-        <v>90.18159217022836</v>
+        <v>3.787963948351276</v>
       </c>
       <c r="S10" t="n">
         <v>1.832617090103476</v>
       </c>
       <c r="T10" t="n">
-        <v>90.36864625646713</v>
+        <v>3.97501803459005</v>
       </c>
       <c r="U10" t="n">
         <v>0.8330771263609549</v>
       </c>
       <c r="V10" t="n">
-        <v>88.62994782468107</v>
+        <v>2.236319602803981</v>
       </c>
       <c r="W10" t="n">
         <v>0.8490055165392221</v>
       </c>
       <c r="X10" t="n">
-        <v>89.43619728088377</v>
+        <v>3.042569059006702</v>
       </c>
       <c r="Y10" t="n">
         <v>0.5070544303731737</v>
       </c>
       <c r="Z10" t="n">
-        <v>89.53942846744619</v>
+        <v>3.145800245569106</v>
       </c>
       <c r="AA10" t="n">
         <v>3.435467659158903</v>
       </c>
       <c r="AB10" t="n">
-        <v>88.29391154837103</v>
+        <v>1.900283326493948</v>
       </c>
       <c r="AC10" t="n">
         <v>3.571122757931967</v>
       </c>
       <c r="AD10" t="n">
-        <v>81.94610108720497</v>
+        <v>4.447527134672121</v>
       </c>
       <c r="AE10" t="n">
         <v>3.050276573668135</v>
@@ -2051,6 +2399,42 @@
       </c>
       <c r="AX10" t="n">
         <v>1.818537827843296</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.6738057391493286</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.1431978402407585</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1431978402407585</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.07604634714376202</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.4663123944415792</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.8237938003835761</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.8237938003835761</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.05383062748942491</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.818537827843296</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.9119631945708826</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.9119631945708826</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.676177442965936</v>
       </c>
     </row>
     <row r="11">
@@ -2058,91 +2442,91 @@
         <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>39.42354486343709</v>
+        <v>46.97008335843999</v>
       </c>
       <c r="C11" t="n">
         <v>2.981226494971743</v>
       </c>
       <c r="D11" t="n">
-        <v>89.72406774125201</v>
+        <v>3.330439519374941</v>
       </c>
       <c r="E11" t="n">
         <v>0.2613676355240173</v>
       </c>
       <c r="F11" t="n">
-        <v>99.71316368021863</v>
+        <v>13.31953545834156</v>
       </c>
       <c r="G11" t="n">
         <v>1.517425699436927</v>
       </c>
       <c r="H11" t="n">
-        <v>99.16091447180891</v>
+        <v>12.76728624993183</v>
       </c>
       <c r="I11" t="n">
         <v>0.9932132477455937</v>
       </c>
       <c r="J11" t="n">
-        <v>92.82447277231419</v>
+        <v>6.430844550437115</v>
       </c>
       <c r="K11" t="n">
         <v>0.5464797324322745</v>
       </c>
       <c r="L11" t="n">
-        <v>92.6562398038012</v>
+        <v>6.262611581924119</v>
       </c>
       <c r="M11" t="n">
         <v>0.9738881537254898</v>
       </c>
       <c r="N11" t="n">
-        <v>92.07705994869801</v>
+        <v>5.683431726820936</v>
       </c>
       <c r="O11" t="n">
         <v>0.5294069330743056</v>
       </c>
       <c r="P11" t="n">
-        <v>90.40406511185017</v>
+        <v>4.010436889973086</v>
       </c>
       <c r="Q11" t="n">
         <v>1.876626116164189</v>
       </c>
       <c r="R11" t="n">
-        <v>90.3712698753844</v>
+        <v>3.977641653507312</v>
       </c>
       <c r="S11" t="n">
         <v>1.894066181588691</v>
       </c>
       <c r="T11" t="n">
-        <v>90.26179516569098</v>
+        <v>3.868166943813883</v>
       </c>
       <c r="U11" t="n">
         <v>0.7881651533410903</v>
       </c>
       <c r="V11" t="n">
-        <v>88.5066367210226</v>
+        <v>2.113008499145522</v>
       </c>
       <c r="W11" t="n">
         <v>1.008459862242347</v>
       </c>
       <c r="X11" t="n">
-        <v>89.23250665055944</v>
+        <v>2.838878428682364</v>
       </c>
       <c r="Y11" t="n">
         <v>0.3403399852996216</v>
       </c>
       <c r="Z11" t="n">
-        <v>89.10861522593396</v>
+        <v>2.714987004056887</v>
       </c>
       <c r="AA11" t="n">
         <v>3.664150643855976</v>
       </c>
       <c r="AB11" t="n">
-        <v>88.01931624716902</v>
+        <v>1.625688025291936</v>
       </c>
       <c r="AC11" t="n">
         <v>2.448292996021031</v>
       </c>
       <c r="AD11" t="n">
-        <v>83.61686950034284</v>
+        <v>2.776758721534229</v>
       </c>
       <c r="AE11" t="n">
         <v>1.904696606575179</v>
@@ -2203,6 +2587,42 @@
       </c>
       <c r="AX11" t="n">
         <v>1.964337066015295</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.5348903227924211</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.154201105104153</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.154201105104153</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.3451962763368789</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.8298980188279215</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.6099430542214228</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.6099430542214228</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.7596319871214765</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.964337066015295</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.7495799747621761</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.7495799747621761</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.668465302899687</v>
       </c>
     </row>
     <row r="12">
@@ -2210,91 +2630,91 @@
         <v>44</v>
       </c>
       <c r="B12" t="n">
-        <v>58.82850657118129</v>
+        <v>27.56512165069579</v>
       </c>
       <c r="C12" t="n">
         <v>1.080480534979635</v>
       </c>
       <c r="D12" t="n">
-        <v>88.33248742083286</v>
+        <v>1.938859198955782</v>
       </c>
       <c r="E12" t="n">
         <v>0.6979800285176978</v>
       </c>
       <c r="F12" t="n">
-        <v>99.60235674330529</v>
+        <v>13.20872852142822</v>
       </c>
       <c r="G12" t="n">
         <v>1.406933398956937</v>
       </c>
       <c r="H12" t="n">
-        <v>97.58787002969295</v>
+        <v>11.19424180781589</v>
       </c>
       <c r="I12" t="n">
         <v>1.218515761355135</v>
       </c>
       <c r="J12" t="n">
-        <v>91.47093346778381</v>
+        <v>5.07730524590675</v>
       </c>
       <c r="K12" t="n">
         <v>0.281638287483382</v>
       </c>
       <c r="L12" t="n">
-        <v>91.33714183847955</v>
+        <v>4.943513616602473</v>
       </c>
       <c r="M12" t="n">
         <v>1.082696305944566</v>
       </c>
       <c r="N12" t="n">
-        <v>90.76564210526487</v>
+        <v>4.372013883387801</v>
       </c>
       <c r="O12" t="n">
         <v>1.066800381274923</v>
       </c>
       <c r="P12" t="n">
-        <v>90.04170438076586</v>
+        <v>3.648076158888792</v>
       </c>
       <c r="Q12" t="n">
         <v>2.187945994924995</v>
       </c>
       <c r="R12" t="n">
-        <v>89.45111112391696</v>
+        <v>3.057482902039879</v>
       </c>
       <c r="S12" t="n">
         <v>2.187570612481302</v>
       </c>
       <c r="T12" t="n">
-        <v>89.72011728489653</v>
+        <v>3.326489063019451</v>
       </c>
       <c r="U12" t="n">
         <v>1.247925453997667</v>
       </c>
       <c r="V12" t="n">
-        <v>88.70671049077461</v>
+        <v>2.313082268897531</v>
       </c>
       <c r="W12" t="n">
         <v>0.5569863826670485</v>
       </c>
       <c r="X12" t="n">
-        <v>89.36291045330941</v>
+        <v>2.969282231432331</v>
       </c>
       <c r="Y12" t="n">
         <v>0.2850877477767568</v>
       </c>
       <c r="Z12" t="n">
-        <v>88.20717182565244</v>
+        <v>1.813543603775358</v>
       </c>
       <c r="AA12" t="n">
         <v>3.635171119202951</v>
       </c>
       <c r="AB12" t="n">
-        <v>85.67061322800657</v>
+        <v>0.7230149938705068</v>
       </c>
       <c r="AC12" t="n">
         <v>2.064189505069812</v>
       </c>
       <c r="AD12" t="n">
-        <v>84.56172537296376</v>
+        <v>1.831902848913316</v>
       </c>
       <c r="AE12" t="n">
         <v>0.07006462584150697</v>
@@ -2355,6 +2775,42 @@
       </c>
       <c r="AX12" t="n">
         <v>0.9266492517248626</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.9848101989120019</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.3717138075137472</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.3717138075137472</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.8245949635990844</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.845044305271642</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.3531648136231649</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.3531648136231649</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.369445579044359</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.9266492517248626</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.4334288007111691</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.4334288007111691</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.965854709368769</v>
       </c>
     </row>
     <row r="13">
@@ -2362,91 +2818,91 @@
         <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>77.57610107990021</v>
+        <v>8.817527141976861</v>
       </c>
       <c r="C13" t="n">
         <v>1.288767063871347</v>
       </c>
       <c r="D13" t="n">
-        <v>87.03043080390768</v>
+        <v>0.6368025820306045</v>
       </c>
       <c r="E13" t="n">
         <v>1.397230270061087</v>
       </c>
       <c r="F13" t="n">
-        <v>97.22331391370044</v>
+        <v>10.82968569182335</v>
       </c>
       <c r="G13" t="n">
         <v>1.938645383144951</v>
       </c>
       <c r="H13" t="n">
-        <v>94.08764763081328</v>
+        <v>7.6940194089362</v>
       </c>
       <c r="I13" t="n">
         <v>1.097013595256399</v>
       </c>
       <c r="J13" t="n">
-        <v>91.46466889279955</v>
+        <v>5.071040670922471</v>
       </c>
       <c r="K13" t="n">
         <v>0.6132896910322501</v>
       </c>
       <c r="L13" t="n">
-        <v>90.44842149348969</v>
+        <v>4.054793271612617</v>
       </c>
       <c r="M13" t="n">
         <v>1.247933570374833</v>
       </c>
       <c r="N13" t="n">
-        <v>90.27882510043206</v>
+        <v>3.885196878554979</v>
       </c>
       <c r="O13" t="n">
         <v>1.464900564640125</v>
       </c>
       <c r="P13" t="n">
-        <v>89.56972791793498</v>
+        <v>3.176099696057918</v>
       </c>
       <c r="Q13" t="n">
         <v>1.637663739792842</v>
       </c>
       <c r="R13" t="n">
-        <v>88.95334588720443</v>
+        <v>2.559717665327355</v>
       </c>
       <c r="S13" t="n">
         <v>1.502532147346656</v>
       </c>
       <c r="T13" t="n">
-        <v>89.68967275416597</v>
+        <v>3.296044532288903</v>
       </c>
       <c r="U13" t="n">
         <v>0.4390148406333125</v>
       </c>
       <c r="V13" t="n">
-        <v>88.87790416149383</v>
+        <v>2.484275939616751</v>
       </c>
       <c r="W13" t="n">
         <v>0.5910711085542744</v>
       </c>
       <c r="X13" t="n">
-        <v>89.26368571342306</v>
+        <v>2.870057491545978</v>
       </c>
       <c r="Y13" t="n">
         <v>0.02429637503116311</v>
       </c>
       <c r="Z13" t="n">
-        <v>87.95510758744911</v>
+        <v>1.561479365572019</v>
       </c>
       <c r="AA13" t="n">
         <v>2.705022121997587</v>
       </c>
       <c r="AB13" t="n">
-        <v>85.92147218420151</v>
+        <v>0.4721560376755747</v>
       </c>
       <c r="AC13" t="n">
         <v>1.878190547861955</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.36314343391582</v>
+        <v>3.030484787961257</v>
       </c>
       <c r="AE13" t="n">
         <v>0.8089065551757812</v>
@@ -2507,6 +2963,42 @@
       </c>
       <c r="AX13" t="n">
         <v>0.04578326801005606</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.7938691337799124</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.2757886663804834</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.2757886663804834</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.8261721433038242</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.9577956868062296</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.656802624148332</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.656802624148332</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.8630166474270724</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.04578326801005606</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.4232055155626595</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.4232055155626595</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.2420406231377341</v>
       </c>
     </row>
     <row r="14">
@@ -2514,91 +3006,91 @@
         <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>77.70126024459272</v>
+        <v>8.692367977284377</v>
       </c>
       <c r="C14" t="n">
         <v>0.8948102910467881</v>
       </c>
       <c r="D14" t="n">
-        <v>86.0338936460779</v>
+        <v>0.3597345757991803</v>
       </c>
       <c r="E14" t="n">
         <v>1.677927057793795</v>
       </c>
       <c r="F14" t="n">
-        <v>93.47878406022457</v>
+        <v>7.08515583834749</v>
       </c>
       <c r="G14" t="n">
         <v>1.886846664104056</v>
       </c>
       <c r="H14" t="n">
-        <v>91.65668874344929</v>
+        <v>5.2630605215722</v>
       </c>
       <c r="I14" t="n">
         <v>0.9255673022980417</v>
       </c>
       <c r="J14" t="n">
-        <v>90.7824719205816</v>
+        <v>4.388843698704505</v>
       </c>
       <c r="K14" t="n">
         <v>1.130838597074472</v>
       </c>
       <c r="L14" t="n">
-        <v>89.8460734397807</v>
+        <v>3.452445217903623</v>
       </c>
       <c r="M14" t="n">
         <v>1.37459775234791</v>
       </c>
       <c r="N14" t="n">
-        <v>89.85657742682922</v>
+        <v>3.462949204952153</v>
       </c>
       <c r="O14" t="n">
         <v>1.687167553191493</v>
       </c>
       <c r="P14" t="n">
-        <v>88.50896003398489</v>
+        <v>2.115331812107819</v>
       </c>
       <c r="Q14" t="n">
         <v>1.504632259937047</v>
       </c>
       <c r="R14" t="n">
-        <v>88.25820963433449</v>
+        <v>1.864581412457412</v>
       </c>
       <c r="S14" t="n">
         <v>1.211304360247674</v>
       </c>
       <c r="T14" t="n">
-        <v>88.93500591846222</v>
+        <v>2.541377696585144</v>
       </c>
       <c r="U14" t="n">
         <v>0.8300862413771597</v>
       </c>
       <c r="V14" t="n">
-        <v>88.67568056634133</v>
+        <v>2.282052344464248</v>
       </c>
       <c r="W14" t="n">
         <v>0.3247687157164236</v>
       </c>
       <c r="X14" t="n">
-        <v>89.43508432266562</v>
+        <v>3.041456100788523</v>
       </c>
       <c r="Y14" t="n">
         <v>0.1410017622278161</v>
       </c>
       <c r="Z14" t="n">
-        <v>87.43409907564204</v>
+        <v>1.040470853764965</v>
       </c>
       <c r="AA14" t="n">
         <v>2.020361068400931</v>
       </c>
       <c r="AB14" t="n">
-        <v>83.84195084267475</v>
+        <v>2.551677379202332</v>
       </c>
       <c r="AC14" t="n">
         <v>2.502291253272521</v>
       </c>
       <c r="AD14" t="n">
-        <v>80.83589026268493</v>
+        <v>5.557737959192153</v>
       </c>
       <c r="AE14" t="n">
         <v>1.62047528206034</v>
@@ -2659,6 +3151,42 @@
       </c>
       <c r="AX14" t="n">
         <v>0.05005329519403823</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.7321401067434699</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.1293719347361852</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.1293719347361852</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.7746091912244525</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.3085690891758119</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.2564204050154046</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.2564204050154046</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.007193705940323869</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.05005329519403823</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.3877657742761578</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.3877657742761578</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.004682610865270664</v>
       </c>
     </row>
     <row r="15">
@@ -2666,91 +3194,91 @@
         <v>56</v>
       </c>
       <c r="B15" t="n">
-        <v>76.37967072585799</v>
+        <v>10.0139574960191</v>
       </c>
       <c r="C15" t="n">
         <v>0.9476073244784757</v>
       </c>
       <c r="D15" t="n">
-        <v>84.7754000032202</v>
+        <v>1.618228218656888</v>
       </c>
       <c r="E15" t="n">
         <v>1.625998476718344</v>
       </c>
       <c r="F15" t="n">
-        <v>83.03204292946674</v>
+        <v>3.361585292410346</v>
       </c>
       <c r="G15" t="n">
         <v>1.455246134007233</v>
       </c>
       <c r="H15" t="n">
-        <v>89.78905566829317</v>
+        <v>3.395427446416086</v>
       </c>
       <c r="I15" t="n">
         <v>0.5671196795524409</v>
       </c>
       <c r="J15" t="n">
-        <v>89.43028323193815</v>
+        <v>3.036655010061061</v>
       </c>
       <c r="K15" t="n">
         <v>1.447178455109302</v>
       </c>
       <c r="L15" t="n">
-        <v>88.64400488265019</v>
+        <v>2.2503766607731</v>
       </c>
       <c r="M15" t="n">
         <v>1.303145226011885</v>
       </c>
       <c r="N15" t="n">
-        <v>88.72790006881067</v>
+        <v>2.334271846933568</v>
       </c>
       <c r="O15" t="n">
         <v>1.585465289176781</v>
       </c>
       <c r="P15" t="n">
-        <v>88.55261092490339</v>
+        <v>2.158982703026311</v>
       </c>
       <c r="Q15" t="n">
         <v>1.495395822727936</v>
       </c>
       <c r="R15" t="n">
-        <v>88.10143470764162</v>
+        <v>1.707806485764522</v>
       </c>
       <c r="S15" t="n">
         <v>1.684383635825299</v>
       </c>
       <c r="T15" t="n">
-        <v>88.81169177116233</v>
+        <v>2.418063549285229</v>
       </c>
       <c r="U15" t="n">
         <v>0.9508254680227708</v>
       </c>
       <c r="V15" t="n">
-        <v>88.57667801227977</v>
+        <v>2.183049790402684</v>
       </c>
       <c r="W15" t="n">
         <v>0.3627452444522987</v>
       </c>
       <c r="X15" t="n">
-        <v>89.45107460021975</v>
+        <v>3.057446378342661</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1165714669734896</v>
       </c>
       <c r="Z15" t="n">
-        <v>86.84510575964097</v>
+        <v>0.4514775377638927</v>
       </c>
       <c r="AA15" t="n">
         <v>1.952508155335771</v>
       </c>
       <c r="AB15" t="n">
-        <v>82.48095005116565</v>
+        <v>3.912678170711438</v>
       </c>
       <c r="AC15" t="n">
         <v>1.892033029109879</v>
       </c>
       <c r="AD15" t="n">
-        <v>79.24302689572598</v>
+        <v>7.150601326151104</v>
       </c>
       <c r="AE15" t="n">
         <v>0.5716952871769081</v>
@@ -2811,6 +3339,42 @@
       </c>
       <c r="AX15" t="n">
         <v>0.03559287891693774</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.8402874176309578</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.219851938444428</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.219851938444428</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.9399275776824476</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.3118826846933103</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.036236610826338</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1.036236610826338</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.08610395028865414</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.03559287891693774</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.04767109530868385</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.04767109530868385</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.08073970852493484</v>
       </c>
     </row>
     <row r="16">
@@ -2818,91 +3382,91 @@
         <v>60</v>
       </c>
       <c r="B16" t="n">
-        <v>68.31148482383566</v>
+        <v>18.08214339804142</v>
       </c>
       <c r="C16" t="n">
         <v>0.1360183066510174</v>
       </c>
       <c r="D16" t="n">
-        <v>83.26538488902945</v>
+        <v>3.128243332847632</v>
       </c>
       <c r="E16" t="n">
         <v>2.489175187780504</v>
       </c>
       <c r="F16" t="n">
-        <v>80.25820813280473</v>
+        <v>6.135420089072376</v>
       </c>
       <c r="G16" t="n">
         <v>0.7707879898395831</v>
       </c>
       <c r="H16" t="n">
-        <v>80.52466143953041</v>
+        <v>5.868966782346675</v>
       </c>
       <c r="I16" t="n">
         <v>0.2661522398603751</v>
       </c>
       <c r="J16" t="n">
-        <v>88.90920015091592</v>
+        <v>2.515571929038842</v>
       </c>
       <c r="K16" t="n">
         <v>1.922298999542889</v>
       </c>
       <c r="L16" t="n">
-        <v>88.42638946594079</v>
+        <v>2.032761244063686</v>
       </c>
       <c r="M16" t="n">
         <v>1.136394257241108</v>
       </c>
       <c r="N16" t="n">
-        <v>88.74393612780472</v>
+        <v>2.350307905927615</v>
       </c>
       <c r="O16" t="n">
         <v>1.222257411226323</v>
       </c>
       <c r="P16" t="n">
-        <v>88.38120318473655</v>
+        <v>1.987574962859462</v>
       </c>
       <c r="Q16" t="n">
         <v>1.797045038101523</v>
       </c>
       <c r="R16" t="n">
-        <v>87.93112775112722</v>
+        <v>1.537499529250134</v>
       </c>
       <c r="S16" t="n">
         <v>1.465286092555282</v>
       </c>
       <c r="T16" t="n">
-        <v>88.37154266682077</v>
+        <v>1.977914444943707</v>
       </c>
       <c r="U16" t="n">
         <v>1.647981684258653</v>
       </c>
       <c r="V16" t="n">
-        <v>88.60421079270384</v>
+        <v>2.210582570826766</v>
       </c>
       <c r="W16" t="n">
         <v>0.4157127218043613</v>
       </c>
       <c r="X16" t="n">
-        <v>89.51751729275317</v>
+        <v>3.123889070876096</v>
       </c>
       <c r="Y16" t="n">
         <v>0.0594930445894235</v>
       </c>
       <c r="Z16" t="n">
-        <v>86.47321335812833</v>
+        <v>0.07958513625124652</v>
       </c>
       <c r="AA16" t="n">
         <v>1.82624979222075</v>
       </c>
       <c r="AB16" t="n">
-        <v>82.37657749906499</v>
+        <v>4.017050722812087</v>
       </c>
       <c r="AC16" t="n">
         <v>0.232810162483382</v>
       </c>
       <c r="AD16" t="n">
-        <v>79.38931647767413</v>
+        <v>7.004311744202951</v>
       </c>
       <c r="AE16" t="n">
         <v>2.332638679666719</v>
@@ -2963,6 +3527,42 @@
       </c>
       <c r="AX16" t="n">
         <v>0.3440912967395766</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1.346995368724405</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.717761895600896</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.717761895600896</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.7304755297361596</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.5879186574078159</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.7521824999844027</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.7521824999844027</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.5209446223223227</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.3440912967395766</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>1.191074718048954</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.191074718048954</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.842006645107346</v>
       </c>
     </row>
     <row r="17">
@@ -2970,91 +3570,91 @@
         <v>64</v>
       </c>
       <c r="B17" t="n">
-        <v>55.92256759075408</v>
+        <v>30.471060631123</v>
       </c>
       <c r="C17" t="n">
         <v>0.2006774253033612</v>
       </c>
       <c r="D17" t="n">
-        <v>82.0244292471003</v>
+        <v>4.369198974776779</v>
       </c>
       <c r="E17" t="n">
         <v>4.229565884204618</v>
       </c>
       <c r="F17" t="n">
-        <v>78.08225865059711</v>
+        <v>8.311369571279968</v>
       </c>
       <c r="G17" t="n">
         <v>0.5646482427069444</v>
       </c>
       <c r="H17" t="n">
-        <v>80.16816707367593</v>
+        <v>6.225461148201155</v>
       </c>
       <c r="I17" t="n">
         <v>0.1427630160717328</v>
       </c>
       <c r="J17" t="n">
-        <v>88.73196054012219</v>
+        <v>2.338332318245094</v>
       </c>
       <c r="K17" t="n">
         <v>2.0071232572515</v>
       </c>
       <c r="L17" t="n">
-        <v>87.8649228430809</v>
+        <v>1.471294621203818</v>
       </c>
       <c r="M17" t="n">
         <v>0.9730562250664931</v>
       </c>
       <c r="N17" t="n">
-        <v>88.50097326522177</v>
+        <v>2.107345043344701</v>
       </c>
       <c r="O17" t="n">
         <v>1.175206772824545</v>
       </c>
       <c r="P17" t="n">
-        <v>88.45979102114413</v>
+        <v>2.066162799267062</v>
       </c>
       <c r="Q17" t="n">
         <v>1.471446422820399</v>
       </c>
       <c r="R17" t="n">
-        <v>87.71829909466685</v>
+        <v>1.32467087278976</v>
       </c>
       <c r="S17" t="n">
         <v>0.889814660904257</v>
       </c>
       <c r="T17" t="n">
-        <v>88.47352291675323</v>
+        <v>2.07989469487616</v>
       </c>
       <c r="U17" t="n">
         <v>1.262790598767864</v>
       </c>
       <c r="V17" t="n">
-        <v>88.55526092204641</v>
+        <v>2.161632700169342</v>
       </c>
       <c r="W17" t="n">
         <v>0.1846922204849619</v>
       </c>
       <c r="X17" t="n">
-        <v>89.35528004423102</v>
+        <v>2.961651822353936</v>
       </c>
       <c r="Y17" t="n">
         <v>0.1095873244265277</v>
       </c>
       <c r="Z17" t="n">
-        <v>86.1171418047966</v>
+        <v>0.2764864170804913</v>
       </c>
       <c r="AA17" t="n">
         <v>1.629038059965097</v>
       </c>
       <c r="AB17" t="n">
-        <v>82.52836998472824</v>
+        <v>3.865258237148836</v>
       </c>
       <c r="AC17" t="n">
         <v>1.227733936715637</v>
       </c>
       <c r="AD17" t="n">
-        <v>80.31683576867937</v>
+        <v>6.076792453197712</v>
       </c>
       <c r="AE17" t="n">
         <v>3.783593279250127</v>
@@ -3115,6 +3715,42 @@
       </c>
       <c r="AX17" t="n">
         <v>2.715436865867169</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.6123760361351294</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.179518568252331</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.179518568252331</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.3436556283761185</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.219823859166969</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.04771975556003194</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.04771975556003194</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.8992687570248504</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2.715436865867169</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1.105150066808224</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.105150066808224</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1.82890150788336</v>
       </c>
     </row>
     <row r="18">
@@ -3122,91 +3758,91 @@
         <v>68</v>
       </c>
       <c r="B18" t="n">
-        <v>59.5892371490915</v>
+        <v>26.80439107278559</v>
       </c>
       <c r="C18" t="n">
         <v>6.209146215560601</v>
       </c>
       <c r="D18" t="n">
-        <v>13.8924537821019</v>
+        <v>72.50117443977518</v>
       </c>
       <c r="E18" t="n">
         <v>7.265155873400111</v>
       </c>
       <c r="F18" t="n">
-        <v>75.93496530613999</v>
+        <v>10.45866291573709</v>
       </c>
       <c r="G18" t="n">
         <v>0.4658272925843647</v>
       </c>
       <c r="H18" t="n">
-        <v>78.70575012044704</v>
+        <v>7.68787810143003</v>
       </c>
       <c r="I18" t="n">
         <v>0.3611016780772189</v>
       </c>
       <c r="J18" t="n">
-        <v>88.54480690144476</v>
+        <v>2.151178679567693</v>
       </c>
       <c r="K18" t="n">
         <v>2.133389736743695</v>
       </c>
       <c r="L18" t="n">
-        <v>87.57604534955736</v>
+        <v>1.182417127680282</v>
       </c>
       <c r="M18" t="n">
         <v>1.024047364579879</v>
       </c>
       <c r="N18" t="n">
-        <v>88.28068071223322</v>
+        <v>1.887052490356119</v>
       </c>
       <c r="O18" t="n">
         <v>0.9402680904307346</v>
       </c>
       <c r="P18" t="n">
-        <v>88.16035047490544</v>
+        <v>1.766722253028369</v>
       </c>
       <c r="Q18" t="n">
         <v>1.819247387825179</v>
       </c>
       <c r="R18" t="n">
-        <v>88.07312782774581</v>
+        <v>1.679499605868727</v>
       </c>
       <c r="S18" t="n">
         <v>1.708826105645358</v>
       </c>
       <c r="T18" t="n">
-        <v>88.18826472505611</v>
+        <v>1.794636503179028</v>
       </c>
       <c r="U18" t="n">
         <v>1.187616713503573</v>
       </c>
       <c r="V18" t="n">
-        <v>87.95176769824742</v>
+        <v>1.558139476370322</v>
       </c>
       <c r="W18" t="n">
         <v>0.337673755402264</v>
       </c>
       <c r="X18" t="n">
-        <v>89.48940723500353</v>
+        <v>3.095779013126446</v>
       </c>
       <c r="Y18" t="n">
         <v>0.1054357975087257</v>
       </c>
       <c r="Z18" t="n">
-        <v>85.70268915054648</v>
+        <v>0.690939071330618</v>
       </c>
       <c r="AA18" t="n">
         <v>1.753786776928187</v>
       </c>
       <c r="AB18" t="n">
-        <v>82.13969291524684</v>
+        <v>4.25393530663024</v>
       </c>
       <c r="AC18" t="n">
         <v>1.566300493605596</v>
       </c>
       <c r="AD18" t="n">
-        <v>79.1230708994764</v>
+        <v>7.270557322400684</v>
       </c>
       <c r="AE18" t="n">
         <v>4.458963110091837</v>
@@ -3267,6 +3903,42 @@
       </c>
       <c r="AX18" t="n">
         <v>1.540641003059525</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>1.49686580995862</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.2134246563915339</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.2134246563915339</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.8801976774779141</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.5695086523576469</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.364965076872753</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.364965076872753</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.5273167910821515</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.540641003059525</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.2087150864347014</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.2087150864347014</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.394064383861007</v>
       </c>
     </row>
     <row r="19">
@@ -3274,91 +3946,91 @@
         <v>72</v>
       </c>
       <c r="B19" t="n">
-        <v>26.45664417997321</v>
+        <v>59.93698404190388</v>
       </c>
       <c r="C19" t="n">
         <v>7.232310924124207</v>
       </c>
       <c r="D19" t="n">
-        <v>46.4057280345166</v>
+        <v>39.98790018736047</v>
       </c>
       <c r="E19" t="n">
         <v>5.755996704101562</v>
       </c>
       <c r="F19" t="n">
-        <v>74.28181272871953</v>
+        <v>12.11181549315756</v>
       </c>
       <c r="G19" t="n">
         <v>0.5205032673287846</v>
       </c>
       <c r="H19" t="n">
-        <v>74.24356480862232</v>
+        <v>12.15006341325476</v>
       </c>
       <c r="I19" t="n">
         <v>0.6438397346658888</v>
       </c>
       <c r="J19" t="n">
-        <v>85.95519395584756</v>
+        <v>0.4384342660295246</v>
       </c>
       <c r="K19" t="n">
         <v>2.284480155782497</v>
       </c>
       <c r="L19" t="n">
-        <v>85.75770452301552</v>
+        <v>0.6359236988615393</v>
       </c>
       <c r="M19" t="n">
         <v>1.503355959628486</v>
       </c>
       <c r="N19" t="n">
-        <v>87.03209377349691</v>
+        <v>0.6384655516198308</v>
       </c>
       <c r="O19" t="n">
         <v>1.010117632277463</v>
       </c>
       <c r="P19" t="n">
-        <v>88.41266124806506</v>
+        <v>2.019033026187977</v>
       </c>
       <c r="Q19" t="n">
         <v>2.019176077335445</v>
       </c>
       <c r="R19" t="n">
-        <v>88.50169181823733</v>
+        <v>2.108063596360239</v>
       </c>
       <c r="S19" t="n">
         <v>1.928621657351236</v>
       </c>
       <c r="T19" t="n">
-        <v>88.47615262295335</v>
+        <v>2.082524401076284</v>
       </c>
       <c r="U19" t="n">
         <v>1.248615346056347</v>
       </c>
       <c r="V19" t="n">
-        <v>88.37488255602246</v>
+        <v>1.981254334145397</v>
       </c>
       <c r="W19" t="n">
         <v>0.3465936539020973</v>
       </c>
       <c r="X19" t="n">
-        <v>89.45488929748537</v>
+        <v>3.061261075608286</v>
       </c>
       <c r="Y19" t="n">
         <v>0.2558606736203473</v>
       </c>
       <c r="Z19" t="n">
-        <v>85.98847287766478</v>
+        <v>0.4051553442123037</v>
       </c>
       <c r="AA19" t="n">
         <v>1.737570255360701</v>
       </c>
       <c r="AB19" t="n">
-        <v>81.78212389032892</v>
+        <v>4.611504331548169</v>
       </c>
       <c r="AC19" t="n">
         <v>1.11356694647607</v>
       </c>
       <c r="AD19" t="n">
-        <v>78.69453633085212</v>
+        <v>7.69909189102497</v>
       </c>
       <c r="AE19" t="n">
         <v>4.721158616086271</v>
@@ -3419,6 +4091,42 @@
       </c>
       <c r="AX19" t="n">
         <v>0.2204613365421926</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.0853169461407135</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.8968888537001152</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.8968888537001152</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.2038491365624685</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.2495739995536574</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.1692570613652093</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.1692570613652093</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.06703760956382687</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.2204613365421926</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.1626026415805684</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.1626026415805684</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.2313435533869361</v>
       </c>
     </row>
     <row r="20">
@@ -3426,91 +4134,91 @@
         <v>76</v>
       </c>
       <c r="B20" t="n">
-        <v>40.48327412059966</v>
+        <v>45.91035410127742</v>
       </c>
       <c r="C20" t="n">
         <v>12.77547186993539</v>
       </c>
       <c r="D20" t="n">
-        <v>62.8696010943423</v>
+        <v>23.52402712753478</v>
       </c>
       <c r="E20" t="n">
         <v>3.089440122563794</v>
       </c>
       <c r="F20" t="n">
-        <v>73.58242704513225</v>
+        <v>12.81120117674482</v>
       </c>
       <c r="G20" t="n">
         <v>0.3177318167179237</v>
       </c>
       <c r="H20" t="n">
-        <v>73.96551903257978</v>
+        <v>12.42810918929729</v>
       </c>
       <c r="I20" t="n">
         <v>0.5263430006960661</v>
       </c>
       <c r="J20" t="n">
-        <v>85.89184969029529</v>
+        <v>0.5017785315817989</v>
       </c>
       <c r="K20" t="n">
         <v>2.300229985663236</v>
       </c>
       <c r="L20" t="n">
-        <v>85.32062248980746</v>
+        <v>1.073005732069618</v>
       </c>
       <c r="M20" t="n">
         <v>1.433827014679608</v>
       </c>
       <c r="N20" t="n">
-        <v>86.6866818767913</v>
+        <v>0.2930536549142175</v>
       </c>
       <c r="O20" t="n">
         <v>1.116622762477149</v>
       </c>
       <c r="P20" t="n">
-        <v>88.78984552748662</v>
+        <v>2.396217305609525</v>
       </c>
       <c r="Q20" t="n">
         <v>2.229970566769857</v>
       </c>
       <c r="R20" t="n">
-        <v>88.91040619383467</v>
+        <v>2.516777971957588</v>
       </c>
       <c r="S20" t="n">
         <v>2.108099105510306</v>
       </c>
       <c r="T20" t="n">
-        <v>88.83558029824117</v>
+        <v>2.441952076364082</v>
       </c>
       <c r="U20" t="n">
         <v>1.241529748794882</v>
       </c>
       <c r="V20" t="n">
-        <v>89.17674308127548</v>
+        <v>2.783114859398381</v>
       </c>
       <c r="W20" t="n">
         <v>0.4201402055456285</v>
       </c>
       <c r="X20" t="n">
-        <v>89.51379897746634</v>
+        <v>3.120170755589264</v>
       </c>
       <c r="Y20" t="n">
         <v>0.2269501381732084</v>
       </c>
       <c r="Z20" t="n">
-        <v>86.70723996263871</v>
+        <v>0.3136117407616226</v>
       </c>
       <c r="AA20" t="n">
         <v>1.966983714002239</v>
       </c>
       <c r="AB20" t="n">
-        <v>82.25989646099983</v>
+        <v>4.133731760877254</v>
       </c>
       <c r="AC20" t="n">
         <v>0.5248678491470713</v>
       </c>
       <c r="AD20" t="n">
-        <v>79.16925105642765</v>
+        <v>7.224377165449432</v>
       </c>
       <c r="AE20" t="n">
         <v>3.563120010051328</v>
@@ -3571,6 +4279,42 @@
       </c>
       <c r="AX20" t="n">
         <v>0.1743441164273953</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.5108353714273193</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.3631192335756273</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.3631192335756273</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.2889186417576139</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.3385110915056395</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.048698532613617</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.048698532613617</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.3854399398319299</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0.1743441164273953</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.7824411451523381</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.7824411451523381</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0.04605058196146627</v>
       </c>
     </row>
     <row r="21">
@@ -3578,91 +4322,91 @@
         <v>80</v>
       </c>
       <c r="B21" t="n">
-        <v>39.14387406820947</v>
+        <v>47.24975415366761</v>
       </c>
       <c r="C21" t="n">
         <v>14.62542351256026</v>
       </c>
       <c r="D21" t="n">
-        <v>29.05917674937147</v>
+        <v>57.33445147250561</v>
       </c>
       <c r="E21" t="n">
         <v>4.231639618569233</v>
       </c>
       <c r="F21" t="n">
-        <v>72.5930523365102</v>
+        <v>13.80057588536689</v>
       </c>
       <c r="G21" t="n">
         <v>0.3831863403320312</v>
       </c>
       <c r="H21" t="n">
-        <v>73.64546745381458</v>
+        <v>12.74816076806251</v>
       </c>
       <c r="I21" t="n">
         <v>0.7460330394988333</v>
       </c>
       <c r="J21" t="n">
-        <v>82.08960801997083</v>
+        <v>4.304020201906248</v>
       </c>
       <c r="K21" t="n">
         <v>3.188664862450132</v>
       </c>
       <c r="L21" t="n">
-        <v>83.86433888623057</v>
+        <v>2.529289335646524</v>
       </c>
       <c r="M21" t="n">
         <v>3.003952351022271</v>
       </c>
       <c r="N21" t="n">
-        <v>85.88426753561546</v>
+        <v>0.5093606862616085</v>
       </c>
       <c r="O21" t="n">
         <v>1.764796642546955</v>
       </c>
       <c r="P21" t="n">
-        <v>89.39594613744858</v>
+        <v>3.002317915571496</v>
       </c>
       <c r="Q21" t="n">
         <v>2.359982754321813</v>
       </c>
       <c r="R21" t="n">
-        <v>89.32802423517757</v>
+        <v>2.934396013300471</v>
       </c>
       <c r="S21" t="n">
         <v>2.288481529722823</v>
       </c>
       <c r="T21" t="n">
-        <v>88.87137453606789</v>
+        <v>2.477746314190796</v>
       </c>
       <c r="U21" t="n">
         <v>0.9929900473736666</v>
       </c>
       <c r="V21" t="n">
-        <v>89.36800246543072</v>
+        <v>2.974374243553648</v>
       </c>
       <c r="W21" t="n">
         <v>0.3986967370865173</v>
       </c>
       <c r="X21" t="n">
-        <v>89.3556260048075</v>
+        <v>2.961997782930418</v>
       </c>
       <c r="Y21" t="n">
         <v>0.3142742400473679</v>
       </c>
       <c r="Z21" t="n">
-        <v>87.07748271049337</v>
+        <v>0.6838544886162978</v>
       </c>
       <c r="AA21" t="n">
         <v>2.243610138588771</v>
       </c>
       <c r="AB21" t="n">
-        <v>82.90748799100837</v>
+        <v>3.486140230868713</v>
       </c>
       <c r="AC21" t="n">
         <v>0.4271446390354896</v>
       </c>
       <c r="AD21" t="n">
-        <v>79.38806249740277</v>
+        <v>7.005565724474309</v>
       </c>
       <c r="AE21" t="n">
         <v>0.6075067723051006</v>
@@ -3723,6 +4467,42 @@
       </c>
       <c r="AX21" t="n">
         <v>0.3849472415511181</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.04868687803510374</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.4305950610446019</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.4305950610446019</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.1554279731992214</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.6151635767627832</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.995098628577448</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>1.995098628577448</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.1381703686699833</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.3849472415511181</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1.506736328024278</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.506736328024278</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.7824008492908512</v>
       </c>
     </row>
     <row r="22">
@@ -3730,91 +4510,91 @@
         <v>84</v>
       </c>
       <c r="B22" t="n">
-        <v>70.59673169191848</v>
+        <v>15.7968965299586</v>
       </c>
       <c r="C22" t="n">
         <v>14.62929096627744</v>
       </c>
       <c r="D22" t="n">
-        <v>11.70981183965156</v>
+        <v>74.68381638222552</v>
       </c>
       <c r="E22" t="n">
         <v>11.1213947864289</v>
       </c>
       <c r="F22" t="n">
-        <v>72.53490914689736</v>
+        <v>13.85871907497973</v>
       </c>
       <c r="G22" t="n">
         <v>1.525006395705219</v>
       </c>
       <c r="H22" t="n">
-        <v>74.90410119929211</v>
+        <v>11.48952702258497</v>
       </c>
       <c r="I22" t="n">
         <v>2.010694463202306</v>
       </c>
       <c r="J22" t="n">
-        <v>81.89574048874229</v>
+        <v>4.497887733134803</v>
       </c>
       <c r="K22" t="n">
         <v>3.757882625498681</v>
       </c>
       <c r="L22" t="n">
-        <v>82.92103186249736</v>
+        <v>3.472596359379743</v>
       </c>
       <c r="M22" t="n">
         <v>2.531510211051788</v>
       </c>
       <c r="N22" t="n">
-        <v>84.84847051032048</v>
+        <v>1.545157711556605</v>
       </c>
       <c r="O22" t="n">
         <v>2.163288441110176</v>
       </c>
       <c r="P22" t="n">
-        <v>88.83628033577126</v>
+        <v>2.442652113894205</v>
       </c>
       <c r="Q22" t="n">
         <v>2.116925665672788</v>
       </c>
       <c r="R22" t="n">
-        <v>89.26226534741991</v>
+        <v>2.868637125542826</v>
       </c>
       <c r="S22" t="n">
         <v>1.86615396053233</v>
       </c>
       <c r="T22" t="n">
-        <v>88.68897011939515</v>
+        <v>2.295341897518085</v>
       </c>
       <c r="U22" t="n">
         <v>0.8586071907205763</v>
       </c>
       <c r="V22" t="n">
-        <v>89.68924461527075</v>
+        <v>3.295616393393665</v>
       </c>
       <c r="W22" t="n">
         <v>0.4044390739278541</v>
       </c>
       <c r="X22" t="n">
-        <v>89.4024564864788</v>
+        <v>3.008828264601696</v>
       </c>
       <c r="Y22" t="n">
         <v>0.4258257277468402</v>
       </c>
       <c r="Z22" t="n">
-        <v>87.53023350492438</v>
+        <v>1.136605283047309</v>
       </c>
       <c r="AA22" t="n">
         <v>2.136883837111455</v>
       </c>
       <c r="AB22" t="n">
-        <v>83.79706524788067</v>
+        <v>2.596562973996413</v>
       </c>
       <c r="AC22" t="n">
         <v>1.536020319512545</v>
       </c>
       <c r="AD22" t="n">
-        <v>79.70017575203104</v>
+        <v>6.693452469846036</v>
       </c>
       <c r="AE22" t="n">
         <v>2.391393133934503</v>
@@ -3875,6 +4655,42 @@
       </c>
       <c r="AX22" t="n">
         <v>2.534053030488564</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.0135027652993589</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.729808242805652</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.729808242805652</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.04433875594702419</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.016156770351273</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.579677618193779</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1.579677618193779</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.5528709359295242</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>2.534053030488564</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.5179943282038715</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.5179943282038715</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1.803667521608816</v>
       </c>
     </row>
     <row r="23">
@@ -3882,91 +4698,91 @@
         <v>88</v>
       </c>
       <c r="B23" t="n">
-        <v>5.908016448325299</v>
+        <v>80.48561177355178</v>
       </c>
       <c r="C23" t="n">
         <v>17.25917978489652</v>
       </c>
       <c r="D23" t="n">
-        <v>10.74032884963015</v>
+        <v>75.65329937224693</v>
       </c>
       <c r="E23" t="n">
         <v>10.86491118086145</v>
       </c>
       <c r="F23" t="n">
-        <v>52.63210864777261</v>
+        <v>33.76151957410447</v>
       </c>
       <c r="G23" t="n">
         <v>0.2724140248400246</v>
       </c>
       <c r="H23" t="n">
-        <v>17.6063821670857</v>
+        <v>68.78724605479138</v>
       </c>
       <c r="I23" t="n">
         <v>17.09456748150764</v>
       </c>
       <c r="J23" t="n">
-        <v>66.06653497574179</v>
+        <v>20.32709324613529</v>
       </c>
       <c r="K23" t="n">
         <v>0.09186927308427784</v>
       </c>
       <c r="L23" t="n">
-        <v>81.82019426467572</v>
+        <v>4.57343395720136</v>
       </c>
       <c r="M23" t="n">
         <v>2.78095894671501</v>
       </c>
       <c r="N23" t="n">
-        <v>83.96205223621207</v>
+        <v>2.431575985665006</v>
       </c>
       <c r="O23" t="n">
         <v>2.274846016092496</v>
       </c>
       <c r="P23" t="n">
-        <v>88.36537827836706</v>
+        <v>1.971750056489981</v>
       </c>
       <c r="Q23" t="n">
         <v>1.860346692673716</v>
       </c>
       <c r="R23" t="n">
-        <v>88.62359878864696</v>
+        <v>2.229970566769879</v>
       </c>
       <c r="S23" t="n">
         <v>1.82239451306932</v>
       </c>
       <c r="T23" t="n">
-        <v>89.13085004116628</v>
+        <v>2.737221819289203</v>
       </c>
       <c r="U23" t="n">
         <v>0.8640532797955487</v>
       </c>
       <c r="V23" t="n">
-        <v>89.61915969848633</v>
+        <v>3.225531476609248</v>
       </c>
       <c r="W23" t="n">
         <v>0.3168349570416424</v>
       </c>
       <c r="X23" t="n">
-        <v>89.55828686977956</v>
+        <v>3.164658647902485</v>
       </c>
       <c r="Y23" t="n">
         <v>0.5839611621613159</v>
       </c>
       <c r="Z23" t="n">
-        <v>87.13860613234502</v>
+        <v>0.7449779104679379</v>
       </c>
       <c r="AA23" t="n">
         <v>2.291991862844924</v>
       </c>
       <c r="AB23" t="n">
-        <v>83.02836722515998</v>
+        <v>3.365260996717097</v>
       </c>
       <c r="AC23" t="n">
         <v>2.739394979274024</v>
       </c>
       <c r="AD23" t="n">
-        <v>79.56310434544341</v>
+        <v>6.830523876433674</v>
       </c>
       <c r="AE23" t="n">
         <v>4.2757845939474</v>
@@ -4027,6 +4843,42 @@
       </c>
       <c r="AX23" t="n">
         <v>2.252427808439513</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.3147639199440322</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.5884410276894521</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.5884410276894521</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.3020885046576294</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.450995983385865</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.1498148668502342</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0.1498148668502342</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.633526772921483</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>2.252427808439513</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>1.471077549354892</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.471077549354892</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.319355067655248</v>
       </c>
     </row>
     <row r="24">
@@ -4034,91 +4886,91 @@
         <v>92</v>
       </c>
       <c r="B24" t="n">
-        <v>4.889965057373047</v>
+        <v>81.50366316450403</v>
       </c>
       <c r="C24" t="n">
         <v>17.12265014648438</v>
       </c>
       <c r="D24" t="n">
-        <v>11.00873338415268</v>
+        <v>75.3848948377244</v>
       </c>
       <c r="E24" t="n">
         <v>10.77956341682596</v>
       </c>
       <c r="F24" t="n">
-        <v>53.01037849263942</v>
+        <v>33.38324972923766</v>
       </c>
       <c r="G24" t="n">
         <v>0.2484057811980591</v>
       </c>
       <c r="H24" t="n">
-        <v>17.94467682534076</v>
+        <v>68.44895139653633</v>
       </c>
       <c r="I24" t="n">
         <v>17.09655599391207</v>
       </c>
       <c r="J24" t="n">
-        <v>65.61274021229846</v>
+        <v>20.78088800957862</v>
       </c>
       <c r="K24" t="n">
         <v>0.1647462236120347</v>
       </c>
       <c r="L24" t="n">
-        <v>18.4468614294174</v>
+        <v>67.9467667924597</v>
       </c>
       <c r="M24" t="n">
         <v>11.00061294880319</v>
       </c>
       <c r="N24" t="n">
-        <v>83.13646008993717</v>
+        <v>3.257168131939906</v>
       </c>
       <c r="O24" t="n">
         <v>2.373147518076784</v>
       </c>
       <c r="P24" t="n">
-        <v>87.70367033938143</v>
+        <v>1.310042117504359</v>
       </c>
       <c r="Q24" t="n">
         <v>2.323369776948965</v>
       </c>
       <c r="R24" t="n">
-        <v>88.07695267048287</v>
+        <v>1.683324448605788</v>
       </c>
       <c r="S24" t="n">
         <v>1.998126253168635</v>
       </c>
       <c r="T24" t="n">
-        <v>88.54898899159534</v>
+        <v>2.155360769718264</v>
       </c>
       <c r="U24" t="n">
         <v>1.197258969570733</v>
       </c>
       <c r="V24" t="n">
-        <v>89.03383498496198</v>
+        <v>2.640206763084912</v>
       </c>
       <c r="W24" t="n">
         <v>0.5031869766560106</v>
       </c>
       <c r="X24" t="n">
-        <v>89.36239607790685</v>
+        <v>2.968767856029764</v>
       </c>
       <c r="Y24" t="n">
         <v>0.4461775434778161</v>
       </c>
       <c r="Z24" t="n">
-        <v>86.09984783416098</v>
+        <v>0.2937803877160903</v>
       </c>
       <c r="AA24" t="n">
         <v>2.583767505402257</v>
       </c>
       <c r="AB24" t="n">
-        <v>81.63445249516913</v>
+        <v>4.759175726707952</v>
       </c>
       <c r="AC24" t="n">
         <v>3.024750567497094</v>
       </c>
       <c r="AD24" t="n">
-        <v>79.75232144619557</v>
+        <v>6.641306775681514</v>
       </c>
       <c r="AE24" t="n">
         <v>4.041876691452998</v>
@@ -4179,6 +5031,42 @@
       </c>
       <c r="AX24" t="n">
         <v>0.6086487070296451</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.3238554678197056</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.02087661904695248</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.02087661904695248</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.3522214219281663</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.9663578453093793</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.566551603256046</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>1.566551603256046</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0.4026496311736981</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0.6086487070296451</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1.45965041824651</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.45965041824651</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.4790399155663301</v>
       </c>
     </row>
     <row r="25">
@@ -4186,91 +5074,91 @@
         <v>96</v>
       </c>
       <c r="B25" t="n">
-        <v>4.222610148977722</v>
+        <v>82.17101807289936</v>
       </c>
       <c r="C25" t="n">
         <v>16.97881982681599</v>
       </c>
       <c r="D25" t="n">
-        <v>10.28312926596784</v>
+        <v>76.11049895590924</v>
       </c>
       <c r="E25" t="n">
         <v>11.08828199670671</v>
       </c>
       <c r="F25" t="n">
-        <v>53.030482758867</v>
+        <v>33.36314546301008</v>
       </c>
       <c r="G25" t="n">
         <v>0.6598939286901668</v>
       </c>
       <c r="H25" t="n">
-        <v>80.63908105200909</v>
+        <v>5.75454716986799</v>
       </c>
       <c r="I25" t="n">
         <v>6.901193172373681</v>
       </c>
       <c r="J25" t="n">
-        <v>82.0339857263768</v>
+        <v>4.359642495500282</v>
       </c>
       <c r="K25" t="n">
         <v>2.606907296688007</v>
       </c>
       <c r="L25" t="n">
-        <v>58.34844670397169</v>
+        <v>28.04518151790539</v>
       </c>
       <c r="M25" t="n">
         <v>0.9955629389336877</v>
       </c>
       <c r="N25" t="n">
-        <v>82.33709788702906</v>
+        <v>4.05653033484802</v>
       </c>
       <c r="O25" t="n">
         <v>2.436321339708698</v>
       </c>
       <c r="P25" t="n">
-        <v>87.02212800370887</v>
+        <v>0.6284997818317919</v>
       </c>
       <c r="Q25" t="n">
         <v>1.987708883082604</v>
       </c>
       <c r="R25" t="n">
-        <v>87.64969846035571</v>
+        <v>1.256070238478628</v>
       </c>
       <c r="S25" t="n">
         <v>1.945544303731708</v>
       </c>
       <c r="T25" t="n">
-        <v>88.90451674765728</v>
+        <v>2.510888525780203</v>
       </c>
       <c r="U25" t="n">
         <v>1.448570413792382</v>
       </c>
       <c r="V25" t="n">
-        <v>88.51853228629905</v>
+        <v>2.124904064421969</v>
       </c>
       <c r="W25" t="n">
         <v>0.3688406437001106</v>
       </c>
       <c r="X25" t="n">
-        <v>89.61917998942924</v>
+        <v>3.225551767552162</v>
       </c>
       <c r="Y25" t="n">
         <v>0.6260486359291946</v>
       </c>
       <c r="Z25" t="n">
-        <v>85.72614345144719</v>
+        <v>0.6674847704298941</v>
       </c>
       <c r="AA25" t="n">
         <v>2.462752321933166</v>
       </c>
       <c r="AB25" t="n">
-        <v>82.07763915366316</v>
+        <v>4.315989068213923</v>
       </c>
       <c r="AC25" t="n">
         <v>2.146221729035062</v>
       </c>
       <c r="AD25" t="n">
-        <v>79.92933557388631</v>
+        <v>6.464292647990774</v>
       </c>
       <c r="AE25" t="n">
         <v>2.441101885856462</v>
@@ -4331,6 +5219,42 @@
       </c>
       <c r="AX25" t="n">
         <v>0.07525561996130925</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.1573062141935573</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.2428120737958945</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.2428120737958945</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.0132175003526438</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.511167423221983</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.189454940044298</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.189454940044298</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0.8254638944582113</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0.07525561996130925</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0.8201282822687661</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.8201282822687661</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.4756399414861208</v>
       </c>
     </row>
     <row r="26">
@@ -4338,91 +5262,91 @@
         <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>4.106412035353642</v>
+        <v>82.28721618652344</v>
       </c>
       <c r="C26" t="n">
         <v>16.84026515230219</v>
       </c>
       <c r="D26" t="n">
-        <v>9.988658986193059</v>
+        <v>76.40496923568402</v>
       </c>
       <c r="E26" t="n">
         <v>8.717739835698545</v>
       </c>
       <c r="F26" t="n">
-        <v>53.57630100656063</v>
+        <v>32.81732721531645</v>
       </c>
       <c r="G26" t="n">
         <v>0.4288369036735276</v>
       </c>
       <c r="H26" t="n">
-        <v>19.40984928861577</v>
+        <v>66.98377893326131</v>
       </c>
       <c r="I26" t="n">
         <v>17.25081180004363</v>
       </c>
       <c r="J26" t="n">
-        <v>66.90590838168529</v>
+        <v>19.48771984019179</v>
       </c>
       <c r="K26" t="n">
         <v>0.2813460979055833</v>
       </c>
       <c r="L26" t="n">
-        <v>58.53691912711936</v>
+        <v>27.85670909475772</v>
       </c>
       <c r="M26" t="n">
         <v>1.1016845703125</v>
       </c>
       <c r="N26" t="n">
-        <v>62.97715369691241</v>
+        <v>23.41647452496467</v>
       </c>
       <c r="O26" t="n">
         <v>1.18233701016041</v>
       </c>
       <c r="P26" t="n">
-        <v>87.23393906938269</v>
+        <v>0.8403108475056058</v>
       </c>
       <c r="Q26" t="n">
         <v>1.995593943494441</v>
       </c>
       <c r="R26" t="n">
-        <v>87.53797449964159</v>
+        <v>1.144346277764512</v>
       </c>
       <c r="S26" t="n">
         <v>1.886522009017625</v>
       </c>
       <c r="T26" t="n">
-        <v>89.05500858388049</v>
+        <v>2.661380362003413</v>
       </c>
       <c r="U26" t="n">
         <v>1.067003290703951</v>
       </c>
       <c r="V26" t="n">
-        <v>89.37312389941927</v>
+        <v>2.979495677542189</v>
       </c>
       <c r="W26" t="n">
         <v>0.6769464371052294</v>
       </c>
       <c r="X26" t="n">
-        <v>89.67806024754302</v>
+        <v>3.284432025665936</v>
       </c>
       <c r="Y26" t="n">
         <v>0.5808241823886391</v>
       </c>
       <c r="Z26" t="n">
-        <v>85.529144774092</v>
+        <v>0.8644834477850765</v>
       </c>
       <c r="AA26" t="n">
         <v>2.426285439349243</v>
       </c>
       <c r="AB26" t="n">
-        <v>81.59614725315824</v>
+        <v>4.797480968718844</v>
       </c>
       <c r="AC26" t="n">
         <v>1.741940924461851</v>
       </c>
       <c r="AD26" t="n">
-        <v>80.01362009251372</v>
+        <v>6.380008129363361</v>
       </c>
       <c r="AE26" t="n">
         <v>1.528005397066153</v>
@@ -4483,6 +5407,42 @@
       </c>
       <c r="AX26" t="n">
         <v>0.723745426285177</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.1549328196382049</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.002373394555352348</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.002373394555352348</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.2451854683512469</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.9911652885180011</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.520002134703982</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.520002134703982</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.3305471946596841</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.723745426285177</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.6484898063238678</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.6484898063238678</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.1716384759448983</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_data/dlc_data/true_data/ID 12 - Run 3 - Standard Devs. Stepcycle.xlsx
+++ b/tests/test_data/dlc_data/true_data/ID 12 - Run 3 - Standard Devs. Stepcycle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ26"/>
+  <dimension ref="A1:AX26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,69 +591,69 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>Hind paw tao Velocity</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Hind paw tao Acceleration</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle Velocity</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle Acceleration</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Knee Velocity</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Knee Acceleration</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Hip Velocity</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Hip Acceleration</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest Velocity</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest Acceleration</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>Ankle Angle</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Hind paw tao Velocity</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Hind paw tao Acceleration</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Ankle Velocity</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Ankle Acceleration</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Knee Velocity</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Knee Acceleration</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Hip Velocity</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Hip Acceleration</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Iliac Crest Velocity</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Iliac Crest Acceleration</t>
-        </is>
-      </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Velocity</t>
@@ -682,66 +682,6 @@
       <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Acceleration</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Ankle Angle Velocity Velocity</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Ankle Angle Velocity Acceleration</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Ankle Angle Acceleration Velocity</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Ankle Angle Acceleration Acceleration</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Knee Angle Velocity Velocity</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Knee Angle Velocity Acceleration</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Knee Angle Acceleration Velocity</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Knee Angle Acceleration Acceleration</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Hip Angle Velocity Velocity</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Hip Angle Velocity Acceleration</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Hip Angle Acceleration Velocity</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>Hip Angle Acceleration Acceleration</t>
         </is>
       </c>
     </row>
@@ -840,43 +780,43 @@
         <v>1.93233895809092</v>
       </c>
       <c r="AF2" t="n">
+        <v>1.803810038465141</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9569325345627835</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.4349799866372024</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.2360998316014129</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.4165578395762388</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.3776357529011083</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.08567749185764839</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.4543395752602422</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.8606616486894225</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1904573846370532</v>
+      </c>
+      <c r="AP2" t="n">
         <v>3.428715195436766</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AQ2" t="n">
         <v>9.22322017039474</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AR2" t="n">
         <v>4.055866178750648</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.803810038465141</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.9569325345627835</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.4349799866372024</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.2360998316014129</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.4165578395762388</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.3776357529011083</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.08567749185764839</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.4543395752602422</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.8606616486894225</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.1904573846370532</v>
       </c>
       <c r="AS2" t="n">
         <v>6.256895604033574</v>
@@ -895,42 +835,6 @@
       </c>
       <c r="AX2" t="n">
         <v>4.007148194367501</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>5.720452186192575</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.2342938195530668</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.2342938195530668</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1.883306303483694</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>2.776030381271281</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.4430684843281065</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.4430684843281065</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1.130507462841948</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>4.007148194367501</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.6070359223533304</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.6070359223533304</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1.02989613399901</v>
       </c>
     </row>
     <row r="3">
@@ -1028,43 +932,43 @@
         <v>2.941671330878073</v>
       </c>
       <c r="AF3" t="n">
+        <v>0.02608907983658071</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.581113328324987</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.3012657165527308</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.002182290909138018</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.5559829955405498</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2073079981702453</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.7832689488187654</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1780494730523277</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6134469458397476</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.02766162791150251</v>
+      </c>
+      <c r="AP3" t="n">
         <v>3.956147143318489</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AQ3" t="n">
         <v>5.672955530362362</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AR3" t="n">
         <v>8.161486784388615</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.02608907983658071</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.581113328324987</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.3012657165527308</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.002182290909138018</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5559829955405498</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.2073079981702453</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.7832689488187654</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.1780494730523277</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.6134469458397476</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.02766162791150251</v>
       </c>
       <c r="AS3" t="n">
         <v>3.155923714538747</v>
@@ -1083,42 +987,6 @@
       </c>
       <c r="AX3" t="n">
         <v>2.714409530287529</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.8376341625650552</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>3.496399619897667</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>3.496399619897667</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.5666700172782335</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0.3243523178158956</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>1.483091540996433</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>1.483091540996433</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.5271382305135717</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2.714409530287529</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>1.9590270338127</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1.9590270338127</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.7867086064398443</v>
       </c>
     </row>
     <row r="4">
@@ -1216,43 +1084,43 @@
         <v>18.81243320221597</v>
       </c>
       <c r="AF4" t="n">
+        <v>0.7257897803123967</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.03910369061409469</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.3175694891746978</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.3920027550230607</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.04174962956853534</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2206528440434905</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.4285710923215227</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.3559158203449595</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.4465366931671717</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2463574105120809</v>
+      </c>
+      <c r="AP4" t="n">
         <v>1.133042440939985</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AQ4" t="n">
         <v>3.420100161593563</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AR4" t="n">
         <v>1.40946926887645</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.7257897803123967</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.03910369061409469</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.3175694891746978</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.3920027550230607</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.04174962956853534</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.2206528440434905</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.4285710923215227</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.3559158203449595</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.4465366931671717</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.2463574105120809</v>
       </c>
       <c r="AS4" t="n">
         <v>1.4168554464796</v>
@@ -1271,42 +1139,6 @@
       </c>
       <c r="AX4" t="n">
         <v>1.725163559551819</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>1.778503791949531</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1.123676124438749</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1.123676124438749</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>1.357713246599371</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>1.316182094848785</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.3252665488053323</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.3252665488053323</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.973351606792034</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1.725163559551819</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.998037700377044</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.998037700377044</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1.527215885204137</v>
       </c>
     </row>
     <row r="5">
@@ -1404,43 +1236,43 @@
         <v>1.146740609026971</v>
       </c>
       <c r="AF5" t="n">
+        <v>0.1706503807230177</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5554255018843008</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1647705727435138</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.4959167318141162</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.02165347971814313</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.2521078637305774</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.070826550747487</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1765058395710337</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.2030129128314115</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.2538660739330609</v>
+      </c>
+      <c r="AP5" t="n">
         <v>5.423952906359602</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AQ5" t="n">
         <v>6.431973172219912</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AR5" t="n">
         <v>1.558105991571566</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.1706503807230177</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.5554255018843008</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.1647705727435138</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.4959167318141162</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.02165347971814313</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.2521078637305774</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.070826550747487</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.1765058395710337</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.2030129128314115</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.2538660739330609</v>
       </c>
       <c r="AS5" t="n">
         <v>1.494930109742952</v>
@@ -1459,42 +1291,6 @@
       </c>
       <c r="AX5" t="n">
         <v>0.05587310857461869</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1.036211239933369</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0.7235177538821997</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.7235177538821997</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.6785909001403764</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>1.585394555286461</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>1.210382441709109</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>1.210382441709109</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>1.15848789181742</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.05587310857461869</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>1.387093581255761</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1.387093581255761</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0.08249895108798366</v>
       </c>
     </row>
     <row r="6">
@@ -1592,43 +1388,43 @@
         <v>20.29567677923973</v>
       </c>
       <c r="AF6" t="n">
+        <v>0.866162016036661</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.09858329245384212</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.942200802742164</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.2552973463180255</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.6559691530592886</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1565989027632018</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.7264472068624315</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1844177854822089</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.7272436263713402</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1101884436100118</v>
+      </c>
+      <c r="AP6" t="n">
         <v>5.570018412045755</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AQ6" t="n">
         <v>3.102267961700406</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AR6" t="n">
         <v>1.930235148565167</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.866162016036661</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.09858329245384212</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.942200802742164</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.2552973463180255</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.6559691530592886</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0.1565989027632018</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.7264472068624315</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.1844177854822089</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.7272436263713402</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.1101884436100118</v>
       </c>
       <c r="AS6" t="n">
         <v>1.321066242522495</v>
@@ -1647,42 +1443,6 @@
       </c>
       <c r="AX6" t="n">
         <v>1.283421538050647</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1.136562671254763</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0.4237322496193514</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.4237322496193514</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.5316900079022766</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0.1469803618479735</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>1.472351030808477</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>1.472351030808477</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0.2384120574832101</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>1.283421538050647</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0.2034769897709006</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.2034769897709006</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.7366906996038294</v>
       </c>
     </row>
     <row r="7">
@@ -1780,43 +1540,43 @@
         <v>1.515256597640668</v>
       </c>
       <c r="AF7" t="n">
+        <v>0.4756876762877091</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.519727899673132</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.3194002394980586</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.5433993136629169</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.3655281472713412</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.232922523579699</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.5278465595651163</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.3189218805191434</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.2138188544740061</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.2039711526099648</v>
+      </c>
+      <c r="AP7" t="n">
         <v>1.169833232712847</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AQ7" t="n">
         <v>0.3604841985728058</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AR7" t="n">
         <v>2.831321846643831</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.4756876762877091</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.519727899673132</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.3194002394980586</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.5433993136629169</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.3655281472713412</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.232922523579699</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.5278465595651163</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.3189218805191434</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.2138188544740061</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.2039711526099648</v>
       </c>
       <c r="AS7" t="n">
         <v>2.442133596310537</v>
@@ -1835,42 +1595,6 @@
       </c>
       <c r="AX7" t="n">
         <v>0.3240466137394042</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0.8898459290329495</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1.479723286263168</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>1.479723286263168</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.3398064013853296</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0.9257070490495671</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0.0999618635347197</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0.0999618635347197</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0.4625672262573383</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0.3240466137394042</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0.7963623889686136</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0.7963623889686136</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0.2861710827816306</v>
       </c>
     </row>
     <row r="8">
@@ -1968,43 +1692,43 @@
         <v>2.398324520029927</v>
       </c>
       <c r="AF8" t="n">
+        <v>0.5139046526969722</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.01536582378631124</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.2726138906275999</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.09883261741475913</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0556585636544682</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.2135248894387107</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.08446206437780646</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.1531058169425723</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.1459172431458775</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.06727360664530302</v>
+      </c>
+      <c r="AP8" t="n">
         <v>0.3290317695117295</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AQ8" t="n">
         <v>1.321528631643474</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AR8" t="n">
         <v>6.296692386895202</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.5139046526969722</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.01536582378631124</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.2726138906275999</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.09883261741475913</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.0556585636544682</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.2135248894387107</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.08446206437780646</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.1531058169425723</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.1459172431458775</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.06727360664530302</v>
       </c>
       <c r="AS8" t="n">
         <v>2.355692194954095</v>
@@ -2023,42 +1747,6 @@
       </c>
       <c r="AX8" t="n">
         <v>0.7868304344029333</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1.557028923779344</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1.43262912843024</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1.43262912843024</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0.8352796156517555</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0.1458351687781922</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.9263761344330703</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0.9263761344330703</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0.3324932816271036</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0.7868304344029333</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0.02009107188111603</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0.02009107188111603</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0.03657930122615194</v>
       </c>
     </row>
     <row r="9">
@@ -2156,43 +1844,43 @@
         <v>2.721407058391161</v>
       </c>
       <c r="AF9" t="n">
+        <v>0.04861151918451867</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.04624965343068865</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.3211939588506141</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.05840012367735703</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.3891650666581796</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.03343364025684181</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.279206417976539</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.06198223600996755</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.05259716764409461</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.02288513995231867</v>
+      </c>
+      <c r="AP9" t="n">
         <v>5.716346001427993</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AQ9" t="n">
         <v>1.69923238960137</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AR9" t="n">
         <v>6.614741189534854</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.04861151918451867</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.04624965343068865</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.3211939588506141</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.05840012367735703</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.3891650666581796</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.03343364025684181</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.279206417976539</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.06198223600996755</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.05259716764409461</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0.02288513995231867</v>
       </c>
       <c r="AS9" t="n">
         <v>1.423001472497766</v>
@@ -2211,42 +1899,6 @@
       </c>
       <c r="AX9" t="n">
         <v>1.103297050161855</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>1.116906544081284</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.1700084093799421</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.1700084093799421</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.7792590681981458</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0.1125957399024626</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.8003526628735034</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0.8003526628735034</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0.2093347607561742</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1.103297050161855</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0.8565504985482923</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0.8565504985482923</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0.809575373441018</v>
       </c>
     </row>
     <row r="10">
@@ -2344,43 +1996,43 @@
         <v>3.050276573668135</v>
       </c>
       <c r="AF10" t="n">
+        <v>0.1138575533603117</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.01324136206443782</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.06273959545378816</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.08132914279369885</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.05340626899232603</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.123101092399434</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.04025672344451081</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.1914070007648867</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.1049001166161112</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.01052922390877598</v>
+      </c>
+      <c r="AP10" t="n">
         <v>6.636034057019124</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AQ10" t="n">
         <v>2.527319107169113</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AR10" t="n">
         <v>2.51960179152708</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.1138575533603117</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.01324136206443782</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.06273959545378816</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.08132914279369885</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.05340626899232603</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0.123101092399434</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.04025672344451081</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.1914070007648867</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0.1049001166161112</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0.01052922390877598</v>
       </c>
       <c r="AS10" t="n">
         <v>0.1897228874783305</v>
@@ -2399,42 +2051,6 @@
       </c>
       <c r="AX10" t="n">
         <v>1.818537827843296</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0.6738057391493286</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0.1431978402407585</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0.1431978402407585</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.07604634714376202</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0.4663123944415792</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0.8237938003835761</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0.8237938003835761</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0.05383062748942491</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1.818537827843296</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0.9119631945708826</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0.9119631945708826</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>1.676177442965936</v>
       </c>
     </row>
     <row r="11">
@@ -2532,43 +2148,43 @@
         <v>1.904696606575179</v>
       </c>
       <c r="AF11" t="n">
+        <v>0.0145318660330247</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.08352360826857641</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.134233718222756</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.08084621835261707</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.2550104831127378</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.1087066975045659</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.3299647189201202</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.2774591141558673</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0834673009020257</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.04215950661516743</v>
+      </c>
+      <c r="AP11" t="n">
         <v>4.860499156012935</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AQ11" t="n">
         <v>1.49015624697055</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AR11" t="n">
         <v>5.698613704892487</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.0145318660330247</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.08352360826857641</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.134233718222756</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.08084621835261707</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.2550104831127378</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0.1087066975045659</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0.3299647189201202</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0.2774591141558673</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.0834673009020257</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0.04215950661516743</v>
       </c>
       <c r="AS11" t="n">
         <v>1.229655886491393</v>
@@ -2587,42 +2203,6 @@
       </c>
       <c r="AX11" t="n">
         <v>1.964337066015295</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0.5348903227924211</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0.154201105104153</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.154201105104153</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0.3451962763368789</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0.8298980188279215</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0.6099430542214228</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0.6099430542214228</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0.7596319871214765</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>1.964337066015295</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0.7495799747621761</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0.7495799747621761</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>1.668465302899687</v>
       </c>
     </row>
     <row r="12">
@@ -2720,43 +2300,43 @@
         <v>0.07006462584150697</v>
       </c>
       <c r="AF12" t="n">
+        <v>0.02961767480728383</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.05740713565907996</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.2550627322907069</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.007220024758197496</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1216518118026428</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.1278083375159706</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.3056749384453958</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.1055983786887271</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.3456633141700216</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.02740393293664489</v>
+      </c>
+      <c r="AP12" t="n">
         <v>0.9454029638370613</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AQ12" t="n">
         <v>2.86659868853971</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AR12" t="n">
         <v>1.020277354196722</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.02961767480728383</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.05740713565907996</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.2550627322907069</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.007220024758197496</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.1216518118026428</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.1278083375159706</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.3056749384453958</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0.1055983786887271</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0.3456633141700216</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0.02740393293664489</v>
       </c>
       <c r="AS12" t="n">
         <v>1.652784465087844</v>
@@ -2775,42 +2355,6 @@
       </c>
       <c r="AX12" t="n">
         <v>0.9266492517248626</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.9848101989120019</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0.3717138075137472</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.3717138075137472</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.8245949635990844</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>1.845044305271642</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0.3531648136231649</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0.3531648136231649</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>1.369445579044359</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.9266492517248626</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0.4334288007111691</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0.4334288007111691</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0.965854709368769</v>
       </c>
     </row>
     <row r="13">
@@ -2908,43 +2452,43 @@
         <v>0.8089065551757812</v>
       </c>
       <c r="AF13" t="n">
+        <v>0.05462372556645789</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.06765583728222424</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.01693482094622212</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.09335431646793069</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.179643326617299</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.1810555762433026</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.336031203574322</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.04934275403935473</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.3033353927287585</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.1471978552798063</v>
+      </c>
+      <c r="AP13" t="n">
         <v>0.9695475673091991</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AQ13" t="n">
         <v>0.1568235970366061</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AR13" t="n">
         <v>0.0485380104003994</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.05462372556645789</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.06765583728222424</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.01693482094622212</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.09335431646793069</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.179643326617299</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0.1810555762433026</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.336031203574322</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.04934275403935473</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0.3033353927287585</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0.1471978552798063</v>
       </c>
       <c r="AS13" t="n">
         <v>0.5890578136293065</v>
@@ -2963,42 +2507,6 @@
       </c>
       <c r="AX13" t="n">
         <v>0.04578326801005606</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0.7938691337799124</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0.2757886663804834</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.2757886663804834</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0.8261721433038242</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0.9577956868062296</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0.656802624148332</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0.656802624148332</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0.8630166474270724</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0.04578326801005606</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0.4232055155626595</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0.4232055155626595</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0.2420406231377341</v>
       </c>
     </row>
     <row r="14">
@@ -3096,43 +2604,43 @@
         <v>1.62047528206034</v>
       </c>
       <c r="AF14" t="n">
+        <v>0.06844033586218501</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03885208292210152</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.1538489727263759</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.025805260272735</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.2349107823473382</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.157838172100961</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2084407400577604</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.1345903315442634</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.4053257881326928</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.2761046937171479</v>
+      </c>
+      <c r="AP14" t="n">
         <v>2.181784364338316</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AQ14" t="n">
         <v>0.6509368646119995</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AR14" t="n">
         <v>1.106334405436137</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0.06844033586218501</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.03885208292210152</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.1538489727263759</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0.025805260272735</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0.2349107823473382</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0.157838172100961</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.2084407400577604</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0.1345903315442634</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0.4053257881326928</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0.2761046937171479</v>
       </c>
       <c r="AS14" t="n">
         <v>0.6284858276927023</v>
@@ -3151,42 +2659,6 @@
       </c>
       <c r="AX14" t="n">
         <v>0.05005329519403823</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0.7321401067434699</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0.1293719347361852</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.1293719347361852</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0.7746091912244525</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0.3085690891758119</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0.2564204050154046</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0.2564204050154046</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0.007193705940323869</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0.05005329519403823</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0.3877657742761578</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0.3877657742761578</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0.004682610865270664</v>
       </c>
     </row>
     <row r="15">
@@ -3284,43 +2756,43 @@
         <v>0.5716952871769081</v>
       </c>
       <c r="AF15" t="n">
+        <v>0.0007558376231138197</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.01261310374482427</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.02111475518409023</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.03163383362141126</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.1490613247485868</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.07920873926040173</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.001080999983120279</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.003383007455374454</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.2144265682139306</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.05376465777133532</v>
+      </c>
+      <c r="AP15" t="n">
         <v>2.404555869011951</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AQ15" t="n">
         <v>2.69297368296386</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AR15" t="n">
         <v>2.461420002048833</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.0007558376231138197</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.01261310374482427</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.02111475518409023</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0.03163383362141126</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0.1490613247485868</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0.07920873926040173</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.001080999983120279</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0.003383007455374454</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0.2144265682139306</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0.05376465777133532</v>
       </c>
       <c r="AS15" t="n">
         <v>1.185401580700839</v>
@@ -3339,42 +2811,6 @@
       </c>
       <c r="AX15" t="n">
         <v>0.03559287891693774</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0.8402874176309578</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0.219851938444428</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0.219851938444428</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0.9399275776824476</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0.3118826846933103</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>1.036236610826338</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>1.036236610826338</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0.08610395028865414</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0.03559287891693774</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0.04767109530868385</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0.04767109530868385</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0.08073970852493484</v>
       </c>
     </row>
     <row r="16">
@@ -3472,43 +2908,43 @@
         <v>2.332638679666719</v>
       </c>
       <c r="AF16" t="n">
+        <v>0.06252197509116186</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.05716998526389894</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.03180453117857951</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.01912066277037638</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.136181141467798</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.1355323385684937</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.1993387303453744</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.01063042498649658</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.05979791600653783</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0624988941436122</v>
+      </c>
+      <c r="AP16" t="n">
         <v>5.988477044209418</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AQ16" t="n">
         <v>3.48747976254247</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AR16" t="n">
         <v>3.958877114329283</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.06252197509116186</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0.05716998526389894</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.03180453117857951</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.01912066277037638</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.136181141467798</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0.1355323385684937</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.1993387303453744</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0.01063042498649658</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0.05979791600653783</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0.0624988941436122</v>
       </c>
       <c r="AS16" t="n">
         <v>0.862909579931264</v>
@@ -3527,42 +2963,6 @@
       </c>
       <c r="AX16" t="n">
         <v>0.3440912967395766</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>1.346995368724405</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0.717761895600896</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0.717761895600896</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0.7304755297361596</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0.5879186574078159</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0.7521824999844027</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0.7521824999844027</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0.5209446223223227</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0.3440912967395766</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>1.191074718048954</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>1.191074718048954</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0.842006645107346</v>
       </c>
     </row>
     <row r="17">
@@ -3660,43 +3060,43 @@
         <v>3.783593279250127</v>
       </c>
       <c r="AF17" t="n">
+        <v>0.01112248035187946</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.07409110982366762</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.2548141682401628</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.1386358382853992</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.02938483623748667</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.09680961040739611</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.0711999040968827</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.1419143473848354</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.2670815650452951</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.094507095661573</v>
+      </c>
+      <c r="AP17" t="n">
         <v>4.18441674450926</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AQ17" t="n">
         <v>1.930311212489816</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AR17" t="n">
         <v>6.832699413568037</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.01112248035187946</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.07409110982366762</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.2548141682401628</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.1386358382853992</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.02938483623748667</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0.09680961040739611</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.0711999040968827</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0.1419143473848354</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0.2670815650452951</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0.094507095661573</v>
       </c>
       <c r="AS17" t="n">
         <v>2.330630003241895</v>
@@ -3715,42 +3115,6 @@
       </c>
       <c r="AX17" t="n">
         <v>2.715436865867169</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0.6123760361351294</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>1.179518568252331</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>1.179518568252331</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0.3436556283761185</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>1.219823859166969</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0.04771975556003194</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0.04771975556003194</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0.8992687570248504</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>2.715436865867169</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>1.105150066808224</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>1.105150066808224</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>1.82890150788336</v>
       </c>
     </row>
     <row r="18">
@@ -3848,43 +3212,43 @@
         <v>4.458963110091837</v>
       </c>
       <c r="AF18" t="n">
+        <v>0.0662078248693625</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.04216128207266756</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.0585515448387639</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.2566520203935241</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.1051654206945543</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.1432865223985971</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.2257443488912401</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.01843381435313596</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.1737422131477473</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.1379378298495748</v>
+      </c>
+      <c r="AP18" t="n">
         <v>0.06914769973140977</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AQ18" t="n">
         <v>5.252438099105042</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AR18" t="n">
         <v>1.155225750661884</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0.0662078248693625</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0.04216128207266756</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0.0585515448387639</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0.2566520203935241</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0.1051654206945543</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0.1432865223985971</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0.2257443488912401</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0.01843381435313596</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0.1737422131477473</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0.1379378298495748</v>
       </c>
       <c r="AS18" t="n">
         <v>0.8060953134057289</v>
@@ -3903,42 +3267,6 @@
       </c>
       <c r="AX18" t="n">
         <v>1.540641003059525</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1.49686580995862</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0.2134246563915339</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0.2134246563915339</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0.8801976774779141</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0.5695086523576469</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0.364965076872753</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0.364965076872753</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0.5273167910821515</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1.540641003059525</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0.2087150864347014</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0.2087150864347014</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>1.394064383861007</v>
       </c>
     </row>
     <row r="19">
@@ -4036,43 +3364,43 @@
         <v>4.721158616086271</v>
       </c>
       <c r="AF19" t="n">
+        <v>0.03275769822141328</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.02335690437478455</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.442572857471216</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.09468641686947699</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0934839248657191</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.01788494434763521</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2175097769879244</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.004962403723540731</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.1671461348838079</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.03121837656548543</v>
+      </c>
+      <c r="AP19" t="n">
         <v>1.6647510958624</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AQ19" t="n">
         <v>6.296530376289681</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AR19" t="n">
         <v>2.980586902653698</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.03275769822141328</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.02335690437478455</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.442572857471216</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.09468641686947699</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.0934839248657191</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0.01788494434763521</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0.2175097769879244</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0.004962403723540731</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0.1671461348838079</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0.03121837656548543</v>
       </c>
       <c r="AS19" t="n">
         <v>1.572138001996572</v>
@@ -4091,42 +3419,6 @@
       </c>
       <c r="AX19" t="n">
         <v>0.2204613365421926</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.0853169461407135</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0.8968888537001152</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0.8968888537001152</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.2038491365624685</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0.2495739995536574</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0.1692570613652093</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0.1692570613652093</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0.06703760956382687</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0.2204613365421926</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0.1626026415805684</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>0.1626026415805684</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0.2313435533869361</v>
       </c>
     </row>
     <row r="20">
@@ -4224,43 +3516,43 @@
         <v>3.563120010051328</v>
       </c>
       <c r="AF20" t="n">
+        <v>0.06534850343745191</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.0542706631599561</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1780241093737089</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1526502852744294</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1827158826462814</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.08090835936527085</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1109534121574214</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.002225916436383812</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1090577308167759</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.0572290826351054</v>
+      </c>
+      <c r="AP20" t="n">
         <v>3.739917676019065</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AQ20" t="n">
         <v>6.34232665525969</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AR20" t="n">
         <v>3.924102708476759</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.06534850343745191</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.0542706631599561</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0.1780241093737089</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.1526502852744294</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0.1827158826462814</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0.08090835936527085</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0.1109534121574214</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0.002225916436383812</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0.1090577308167759</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0.0572290826351054</v>
       </c>
       <c r="AS20" t="n">
         <v>0.3628159025984132</v>
@@ -4279,42 +3571,6 @@
       </c>
       <c r="AX20" t="n">
         <v>0.1743441164273953</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.5108353714273193</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.3631192335756273</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0.3631192335756273</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.2889186417576139</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.3385110915056395</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>1.048698532613617</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>1.048698532613617</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0.3854399398319299</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0.1743441164273953</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0.7824411451523381</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0.7824411451523381</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0.04605058196146627</v>
       </c>
     </row>
     <row r="21">
@@ -4412,43 +3668,43 @@
         <v>0.6075067723051006</v>
       </c>
       <c r="AF21" t="n">
+        <v>0.05690848573724594</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.05125086358253128</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.1433321770201275</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.0324956914211878</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.2161254274084214</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.05454966362485614</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.239690313947964</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.1208442322751324</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.2327787115218811</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.2914416029098152</v>
+      </c>
+      <c r="AP21" t="n">
         <v>3.771742770466449</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AQ21" t="n">
         <v>7.742167300252255</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AR21" t="n">
         <v>5.564994980009388</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.05690848573724594</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.05125086358253128</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.1433321770201275</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.0324956914211878</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.2161254274084214</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0.05454966362485614</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.239690313947964</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0.1208442322751324</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0.2327787115218811</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.2914416029098152</v>
       </c>
       <c r="AS21" t="n">
         <v>0.605970737502763</v>
@@ -4467,42 +3723,6 @@
       </c>
       <c r="AX21" t="n">
         <v>0.3849472415511181</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.04868687803510374</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0.4305950610446019</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0.4305950610446019</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.1554279731992214</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.6151635767627832</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>1.995098628577448</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>1.995098628577448</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0.1381703686699833</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0.3849472415511181</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>1.506736328024278</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1.506736328024278</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0.7824008492908512</v>
       </c>
     </row>
     <row r="22">
@@ -4600,43 +3820,43 @@
         <v>2.391393133934503</v>
       </c>
       <c r="AF22" t="n">
+        <v>0.1636221053752465</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.07344661874974001</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.1723182962295908</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.01694648823839451</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2577193239902016</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2352653665745486</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.1368167552542126</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.03551498372504014</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.3562384463371124</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.1155297806922384</v>
+      </c>
+      <c r="AP22" t="n">
         <v>3.998315377054251</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AQ22" t="n">
         <v>6.681353638193691</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AR22" t="n">
         <v>8.745676217746492</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.1636221053752465</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.07344661874974001</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.1723182962295908</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.01694648823839451</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0.2577193239902016</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0.2352653665745486</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0.1368167552542126</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0.03551498372504014</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0.3562384463371124</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0.1155297806922384</v>
       </c>
       <c r="AS22" t="n">
         <v>0.8732546717712948</v>
@@ -4655,42 +3875,6 @@
       </c>
       <c r="AX22" t="n">
         <v>2.534053030488564</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.0135027652993589</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0.729808242805652</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0.729808242805652</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.04433875594702419</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>1.016156770351273</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>1.579677618193779</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>1.579677618193779</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0.5528709359295242</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>2.534053030488564</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0.5179943282038715</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0.5179943282038715</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>1.803667521608816</v>
       </c>
     </row>
     <row r="23">
@@ -4788,43 +3972,43 @@
         <v>4.2757845939474</v>
       </c>
       <c r="AF23" t="n">
+        <v>0.07904133898147236</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.02081901469129477</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.101894013425138</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.005953362647520777</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.2634900681515902</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.05005724886631491</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.1240781013001886</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.1726018621566343</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.02954564195997733</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.04462231980993892</v>
+      </c>
+      <c r="AP23" t="n">
         <v>3.245990026911986</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AQ23" t="n">
         <v>1.293433997193496</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AR23" t="n">
         <v>0.8459442634437409</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.07904133898147236</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.02081901469129477</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.101894013425138</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.005953362647520777</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.2634900681515902</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0.05005724886631491</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0.1240781013001886</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0.1726018621566343</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0.02954564195997733</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0.04462231980993892</v>
       </c>
       <c r="AS23" t="n">
         <v>0.7095880032826374</v>
@@ -4843,42 +4027,6 @@
       </c>
       <c r="AX23" t="n">
         <v>2.252427808439513</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0.3147639199440322</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0.5884410276894521</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0.5884410276894521</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0.3020885046576294</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>1.450995983385865</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0.1498148668502342</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0.1498148668502342</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>1.633526772921483</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>2.252427808439513</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>1.471077549354892</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>1.471077549354892</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>2.319355067655248</v>
       </c>
     </row>
     <row r="24">
@@ -4976,43 +4124,43 @@
         <v>4.041876691452998</v>
       </c>
       <c r="AF24" t="n">
+        <v>0.2674427438289513</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.03605852735803161</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.1171365697333222</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.06341274748457337</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.2521027909948366</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.2089013444616441</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.07169398855654663</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.0627446681895254</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.09033832144229592</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.03161125994742697</v>
+      </c>
+      <c r="AP24" t="n">
         <v>1.213278879482353</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AQ24" t="n">
         <v>1.304773224538462</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AR24" t="n">
         <v>2.080066231142098</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.2674427438289513</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.03605852735803161</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.1171365697333222</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.06341274748457337</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.2521027909948366</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0.2089013444616441</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.07169398855654663</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0.0627446681895254</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0.09033832144229592</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0.03161125994742697</v>
       </c>
       <c r="AS24" t="n">
         <v>0.4123379440560102</v>
@@ -5031,42 +4179,6 @@
       </c>
       <c r="AX24" t="n">
         <v>0.6086487070296451</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0.3238554678197056</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0.02087661904695248</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0.02087661904695248</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0.3522214219281663</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0.9663578453093793</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>1.566551603256046</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>1.566551603256046</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0.4026496311736981</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>0.6086487070296451</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>1.45965041824651</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>1.45965041824651</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0.4790399155663301</v>
       </c>
     </row>
     <row r="25">
@@ -5164,43 +4276,43 @@
         <v>2.441101885856462</v>
       </c>
       <c r="AF25" t="n">
+        <v>0.1466923571647456</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.1327189993351077</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.2940685191053021</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3887770023751713</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.4126325566717881</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.09221320456645543</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.06378153537180964</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.06161852085842412</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.08532138580971349</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.1643855521019368</v>
+      </c>
+      <c r="AP25" t="n">
         <v>0.7292855664129263</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AQ25" t="n">
         <v>1.610257243619959</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AR25" t="n">
         <v>3.034098167422812</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.1466923571647456</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.1327189993351077</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.2940685191053021</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.3887770023751713</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.4126325566717881</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0.09221320456645543</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.06378153537180964</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0.06161852085842412</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0.08532138580971349</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0.1643855521019368</v>
       </c>
       <c r="AS25" t="n">
         <v>0.5203543545297578</v>
@@ -5219,42 +4331,6 @@
       </c>
       <c r="AX25" t="n">
         <v>0.07525561996130925</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0.1573062141935573</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0.2428120737958945</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0.2428120737958945</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0.0132175003526438</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>1.511167423221983</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0.189454940044298</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0.189454940044298</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0.8254638944582113</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0.07525561996130925</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0.8201282822687661</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0.8201282822687661</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0.4756399414861208</v>
       </c>
     </row>
     <row r="26">
@@ -5352,43 +4428,43 @@
         <v>1.528005397066153</v>
       </c>
       <c r="AF26" t="n">
+        <v>0.05888025811377418</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.08781209905097143</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.8545916131202205</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.5605230940149184</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1504918362232104</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.2621407204485777</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1117239607141158</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.04794242534230619</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.2118110656738139</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.2971324514835274</v>
+      </c>
+      <c r="AP26" t="n">
         <v>1.094707101304479</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AQ26" t="n">
         <v>6.054291714009189</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AR26" t="n">
         <v>5.231235942270487</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0.05888025811377418</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0.08781209905097143</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.8545916131202205</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0.5605230940149184</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0.1504918362232104</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0.2621407204485777</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0.1117239607141158</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0.04794242534230619</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0.2118110656738139</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0.2971324514835274</v>
       </c>
       <c r="AS26" t="n">
         <v>0.3654215348915528</v>
@@ -5407,42 +4483,6 @@
       </c>
       <c r="AX26" t="n">
         <v>0.723745426285177</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0.1549328196382049</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0.002373394555352348</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0.002373394555352348</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0.2451854683512469</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0.9911652885180011</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0.520002134703982</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0.520002134703982</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0.3305471946596841</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>0.723745426285177</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0.6484898063238678</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>0.6484898063238678</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0.1716384759448983</v>
       </c>
     </row>
   </sheetData>
